--- a/Semestre 1/Estadística/Caso 1/Datos_proyecto_estadistica.xlsx
+++ b/Semestre 1/Estadística/Caso 1/Datos_proyecto_estadistica.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\MAF\Semestre 1\Estadística\Caso 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E276A414-FFB3-4D8D-99F3-0FC122611FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EAB6327-5EC0-4316-8E1D-87335EACBDA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7EC816FA-F9ED-4E64-808C-52208DA46853}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="SpreadsheetBuilder_1" hidden="1">Hoja1!$A$1:$C$2</definedName>
+    <definedName name="SpreadsheetBuilder_1" hidden="1">Hoja1!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="4">
   <si>
     <t>GRUPOARG CB Equity</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>Dates</t>
-  </si>
-  <si>
-    <t>PX_LAST</t>
   </si>
   <si>
     <t>#N/A N/A</t>
@@ -403,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2344424A-B642-4467-8794-A278F8AF108D}">
-  <dimension ref="A1:C599"/>
+  <dimension ref="A1:C598"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A349" workbookViewId="0">
-      <selection activeCell="C162" sqref="C162"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,6 +413,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -424,2607 +424,2607 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
+      <c r="A2" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B2">
+        <v>12320</v>
+      </c>
+      <c r="C2">
+        <v>21.693300000000001</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B3">
-        <v>12320</v>
+        <v>10700</v>
       </c>
       <c r="C3">
-        <v>21.693300000000001</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B4">
-        <v>10700</v>
+        <v>11760</v>
       </c>
       <c r="C4">
-        <v>22.8</v>
+        <v>24.3933</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B5">
-        <v>11760</v>
+        <v>12100</v>
       </c>
       <c r="C5">
-        <v>24.3933</v>
+        <v>23.526700000000002</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>43924</v>
+        <v>43927</v>
       </c>
       <c r="B6">
-        <v>12100</v>
+        <v>11800</v>
       </c>
       <c r="C6">
-        <v>23.526700000000002</v>
+        <v>24.706700000000001</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B7">
-        <v>11800</v>
+        <v>11360</v>
       </c>
       <c r="C7">
-        <v>24.706700000000001</v>
+        <v>25.5867</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B8">
-        <v>11360</v>
+        <v>11580</v>
       </c>
       <c r="C8">
-        <v>25.5867</v>
+        <v>26.253299999999999</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>43929</v>
+        <v>43934</v>
       </c>
       <c r="B9">
-        <v>11580</v>
+        <v>11520</v>
       </c>
       <c r="C9">
-        <v>26.253299999999999</v>
+        <v>26.8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B10">
-        <v>11520</v>
+        <v>11500</v>
       </c>
       <c r="C10">
-        <v>26.8</v>
+        <v>26.6267</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B11">
-        <v>11500</v>
+        <v>11580</v>
       </c>
       <c r="C11">
-        <v>26.6267</v>
+        <v>25.046700000000001</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B12">
-        <v>11580</v>
+        <v>11280</v>
       </c>
       <c r="C12">
-        <v>25.046700000000001</v>
+        <v>25.0533</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B13">
-        <v>11280</v>
+        <v>11300</v>
       </c>
       <c r="C13">
-        <v>25.0533</v>
+        <v>26.846699999999998</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>43938</v>
+        <v>43941</v>
       </c>
       <c r="B14">
-        <v>11300</v>
+        <v>11180</v>
       </c>
       <c r="C14">
-        <v>26.846699999999998</v>
+        <v>25.646699999999999</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B15">
-        <v>11180</v>
+        <v>10500</v>
       </c>
       <c r="C15">
-        <v>25.646699999999999</v>
+        <v>25.0867</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B16">
-        <v>10500</v>
+        <v>9910</v>
       </c>
       <c r="C16">
-        <v>25.0867</v>
+        <v>25.5533</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B17">
-        <v>9910</v>
+        <v>9580</v>
       </c>
       <c r="C17">
-        <v>25.5533</v>
+        <v>25.386700000000001</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="B18">
-        <v>9580</v>
+        <v>9110</v>
       </c>
       <c r="C18">
-        <v>25.386700000000001</v>
+        <v>25.16</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>43945</v>
+        <v>43948</v>
       </c>
       <c r="B19">
-        <v>9110</v>
+        <v>8600</v>
       </c>
       <c r="C19">
-        <v>25.16</v>
+        <v>26.4467</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="B20">
-        <v>8600</v>
+        <v>8900</v>
       </c>
       <c r="C20">
-        <v>26.4467</v>
+        <v>26.24</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B21">
-        <v>8900</v>
+        <v>9350</v>
       </c>
       <c r="C21">
-        <v>26.24</v>
+        <v>28.033300000000001</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B22">
-        <v>9350</v>
+        <v>9220</v>
       </c>
       <c r="C22">
-        <v>28.033300000000001</v>
+        <v>27.906700000000001</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>43951</v>
+        <v>43955</v>
       </c>
       <c r="B23">
-        <v>9220</v>
+        <v>9360</v>
       </c>
       <c r="C23">
-        <v>27.906700000000001</v>
+        <v>27.78</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="B24">
-        <v>9360</v>
+        <v>9230</v>
       </c>
       <c r="C24">
-        <v>27.78</v>
+        <v>28.506699999999999</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="B25">
-        <v>9230</v>
+        <v>8900</v>
       </c>
       <c r="C25">
-        <v>28.506699999999999</v>
+        <v>27.453299999999999</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B26">
-        <v>8900</v>
+        <v>9000</v>
       </c>
       <c r="C26">
-        <v>27.453299999999999</v>
+        <v>27.653300000000002</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="B27">
-        <v>9000</v>
+        <v>8880</v>
       </c>
       <c r="C27">
-        <v>27.653300000000002</v>
+        <v>28.986699999999999</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>43959</v>
+        <v>43962</v>
       </c>
       <c r="B28">
-        <v>8880</v>
+        <v>8900</v>
       </c>
       <c r="C28">
-        <v>28.986699999999999</v>
+        <v>31.273299999999999</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="B29">
-        <v>8900</v>
+        <v>8700</v>
       </c>
       <c r="C29">
-        <v>31.273299999999999</v>
+        <v>30.666699999999999</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="B30">
-        <v>8700</v>
+        <v>8030</v>
       </c>
       <c r="C30">
-        <v>30.666699999999999</v>
+        <v>29.3733</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="B31">
-        <v>8030</v>
+        <v>8250</v>
       </c>
       <c r="C31">
-        <v>29.3733</v>
+        <v>28.98</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B32">
-        <v>8250</v>
+        <v>8360</v>
       </c>
       <c r="C32">
-        <v>28.98</v>
+        <v>29.14</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="B33">
-        <v>8360</v>
+        <v>8600</v>
       </c>
       <c r="C33">
-        <v>29.14</v>
+        <v>30.26</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B34">
-        <v>8600</v>
+        <v>8630</v>
       </c>
       <c r="C34">
-        <v>30.26</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B35">
-        <v>8630</v>
+        <v>8520</v>
       </c>
       <c r="C35">
-        <v>30.64</v>
+        <v>29.9267</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="B36">
-        <v>8520</v>
+        <v>8300</v>
       </c>
       <c r="C36">
-        <v>29.9267</v>
+        <v>29.326699999999999</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="B37">
-        <v>8300</v>
+        <v>8120</v>
       </c>
       <c r="C37">
-        <v>29.326699999999999</v>
+        <v>29.4</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>43973</v>
+        <v>43977</v>
       </c>
       <c r="B38">
-        <v>8120</v>
+        <v>8260</v>
       </c>
       <c r="C38">
-        <v>29.4</v>
+        <v>29.066700000000001</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B39">
-        <v>8260</v>
+        <v>8120</v>
       </c>
       <c r="C39">
-        <v>29.066700000000001</v>
+        <v>29.133299999999998</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B40">
-        <v>8120</v>
+        <v>7910</v>
       </c>
       <c r="C40">
-        <v>29.133299999999998</v>
+        <v>28.706700000000001</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="B41">
-        <v>7910</v>
+        <v>8700</v>
       </c>
       <c r="C41">
-        <v>28.706700000000001</v>
+        <v>28.933299999999999</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>43980</v>
+        <v>43983</v>
       </c>
       <c r="B42">
-        <v>8700</v>
+        <v>9000</v>
       </c>
       <c r="C42">
-        <v>28.933299999999999</v>
+        <v>29.72</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B43">
-        <v>9000</v>
+        <v>8960</v>
       </c>
       <c r="C43">
-        <v>29.72</v>
+        <v>30.8733</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="B44">
-        <v>8960</v>
+        <v>9010</v>
       </c>
       <c r="C44">
-        <v>30.8733</v>
+        <v>31.673300000000001</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="B45">
-        <v>9010</v>
+        <v>9160</v>
       </c>
       <c r="C45">
-        <v>31.673300000000001</v>
+        <v>32.013300000000001</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="B46">
-        <v>9160</v>
+        <v>9800</v>
       </c>
       <c r="C46">
-        <v>32.013300000000001</v>
+        <v>32.86</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>43987</v>
+        <v>43990</v>
       </c>
       <c r="B47">
-        <v>9800</v>
+        <v>10120</v>
       </c>
       <c r="C47">
-        <v>32.86</v>
+        <v>34.186700000000002</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B48">
-        <v>10120</v>
+        <v>9800</v>
       </c>
       <c r="C48">
-        <v>34.186700000000002</v>
+        <v>33.173299999999998</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B49">
-        <v>9800</v>
+        <v>9900</v>
       </c>
       <c r="C49">
-        <v>33.173299999999998</v>
+        <v>32.9467</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B50">
-        <v>9900</v>
+        <v>9200</v>
       </c>
       <c r="C50">
-        <v>32.9467</v>
+        <v>31.22</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B51">
-        <v>9200</v>
+        <v>9540</v>
       </c>
       <c r="C51">
-        <v>31.22</v>
+        <v>31.54</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>43994</v>
+        <v>43998</v>
       </c>
       <c r="B52">
-        <v>9540</v>
+        <v>9700</v>
       </c>
       <c r="C52">
-        <v>31.54</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B53">
-        <v>9700</v>
+        <v>9800</v>
       </c>
       <c r="C53">
-        <v>33</v>
+        <v>33.073300000000003</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B54">
-        <v>9800</v>
+        <v>9880</v>
       </c>
       <c r="C54">
-        <v>33.073300000000003</v>
+        <v>33.333300000000001</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B55">
-        <v>9880</v>
+        <v>10860</v>
       </c>
       <c r="C55">
-        <v>33.333300000000001</v>
+        <v>33.726700000000001</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>44001</v>
+        <v>44005</v>
       </c>
       <c r="B56">
-        <v>10860</v>
+        <v>10180</v>
       </c>
       <c r="C56">
-        <v>33.726700000000001</v>
+        <v>33.433300000000003</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B57">
-        <v>10180</v>
+        <v>10100</v>
       </c>
       <c r="C57">
-        <v>33.433300000000003</v>
+        <v>32.7667</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B58">
-        <v>10100</v>
+        <v>9990</v>
       </c>
       <c r="C58">
-        <v>32.7667</v>
+        <v>31.8933</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B59">
-        <v>9990</v>
+        <v>9960</v>
       </c>
       <c r="C59">
-        <v>31.8933</v>
+        <v>29.5733</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>44008</v>
+        <v>44012</v>
       </c>
       <c r="B60">
-        <v>9960</v>
+        <v>9900</v>
       </c>
       <c r="C60">
-        <v>29.5733</v>
+        <v>30.36</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="B61">
-        <v>9900</v>
+        <v>9750</v>
       </c>
       <c r="C61">
-        <v>30.36</v>
+        <v>29.953299999999999</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="B62">
-        <v>9750</v>
+        <v>9850</v>
       </c>
       <c r="C62">
-        <v>29.953299999999999</v>
+        <v>30.0533</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="B63">
-        <v>9850</v>
-      </c>
-      <c r="C63">
-        <v>30.0533</v>
+        <v>9740</v>
+      </c>
+      <c r="C63" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>44015</v>
+        <v>44018</v>
       </c>
       <c r="B64">
-        <v>9740</v>
-      </c>
-      <c r="C64" t="s">
-        <v>4</v>
+        <v>10140</v>
+      </c>
+      <c r="C64">
+        <v>30.56</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>44018</v>
+        <v>44019</v>
       </c>
       <c r="B65">
-        <v>10140</v>
+        <v>10280</v>
       </c>
       <c r="C65">
-        <v>30.56</v>
+        <v>30.4267</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>44019</v>
+        <v>44020</v>
       </c>
       <c r="B66">
-        <v>10280</v>
+        <v>10300</v>
       </c>
       <c r="C66">
-        <v>30.4267</v>
+        <v>29.826699999999999</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="B67">
-        <v>10300</v>
+        <v>10340</v>
       </c>
       <c r="C67">
-        <v>29.826699999999999</v>
+        <v>28.9467</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="B68">
-        <v>10340</v>
+        <v>10280</v>
       </c>
       <c r="C68">
-        <v>28.9467</v>
+        <v>28.9267</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>44022</v>
+        <v>44025</v>
       </c>
       <c r="B69">
-        <v>10280</v>
+        <v>10400</v>
       </c>
       <c r="C69">
-        <v>28.9267</v>
+        <v>29.986699999999999</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>44025</v>
+        <v>44026</v>
       </c>
       <c r="B70">
-        <v>10400</v>
+        <v>10240</v>
       </c>
       <c r="C70">
-        <v>29.986699999999999</v>
+        <v>30.9467</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="B71">
-        <v>10240</v>
+        <v>10300</v>
       </c>
       <c r="C71">
-        <v>30.9467</v>
+        <v>31.7667</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="B72">
-        <v>10300</v>
+        <v>10320</v>
       </c>
       <c r="C72">
-        <v>31.7667</v>
+        <v>31.673300000000001</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>44028</v>
+        <v>44029</v>
       </c>
       <c r="B73">
-        <v>10320</v>
+        <v>10280</v>
       </c>
       <c r="C73">
-        <v>31.673300000000001</v>
+        <v>32.333300000000001</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>44029</v>
+        <v>44033</v>
       </c>
       <c r="B74">
-        <v>10280</v>
+        <v>10680</v>
       </c>
       <c r="C74">
-        <v>32.333300000000001</v>
+        <v>32.46</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>44033</v>
+        <v>44034</v>
       </c>
       <c r="B75">
-        <v>10680</v>
+        <v>10760</v>
       </c>
       <c r="C75">
-        <v>32.46</v>
+        <v>31.453299999999999</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>44034</v>
+        <v>44035</v>
       </c>
       <c r="B76">
-        <v>10760</v>
+        <v>11080</v>
       </c>
       <c r="C76">
-        <v>31.453299999999999</v>
+        <v>31.366700000000002</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>44035</v>
+        <v>44036</v>
       </c>
       <c r="B77">
-        <v>11080</v>
+        <v>11020</v>
       </c>
       <c r="C77">
-        <v>31.366700000000002</v>
+        <v>30.986699999999999</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>44036</v>
+        <v>44039</v>
       </c>
       <c r="B78">
-        <v>11020</v>
+        <v>10800</v>
       </c>
       <c r="C78">
-        <v>30.986699999999999</v>
+        <v>31.093299999999999</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>44039</v>
+        <v>44040</v>
       </c>
       <c r="B79">
-        <v>10800</v>
+        <v>10580</v>
       </c>
       <c r="C79">
-        <v>31.093299999999999</v>
+        <v>31.0733</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>44040</v>
+        <v>44041</v>
       </c>
       <c r="B80">
-        <v>10580</v>
+        <v>10500</v>
       </c>
       <c r="C80">
-        <v>31.0733</v>
+        <v>30.726700000000001</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>44041</v>
+        <v>44042</v>
       </c>
       <c r="B81">
-        <v>10500</v>
+        <v>10360</v>
       </c>
       <c r="C81">
-        <v>30.726700000000001</v>
+        <v>30.246700000000001</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>44042</v>
+        <v>44043</v>
       </c>
       <c r="B82">
-        <v>10360</v>
+        <v>10200</v>
       </c>
       <c r="C82">
-        <v>30.246700000000001</v>
+        <v>30.4267</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>44043</v>
+        <v>44046</v>
       </c>
       <c r="B83">
-        <v>10200</v>
+        <v>10360</v>
       </c>
       <c r="C83">
-        <v>30.4267</v>
+        <v>31.153300000000002</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>44046</v>
+        <v>44047</v>
       </c>
       <c r="B84">
-        <v>10360</v>
+        <v>10200</v>
       </c>
       <c r="C84">
-        <v>31.153300000000002</v>
+        <v>30.853300000000001</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>44047</v>
+        <v>44048</v>
       </c>
       <c r="B85">
-        <v>10200</v>
+        <v>10360</v>
       </c>
       <c r="C85">
-        <v>30.853300000000001</v>
+        <v>31.846699999999998</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>44048</v>
+        <v>44049</v>
       </c>
       <c r="B86">
         <v>10360</v>
       </c>
       <c r="C86">
-        <v>31.846699999999998</v>
+        <v>31.886700000000001</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>44049</v>
+        <v>44053</v>
       </c>
       <c r="B87">
-        <v>10360</v>
+        <v>10300</v>
       </c>
       <c r="C87">
-        <v>31.886700000000001</v>
+        <v>32.706699999999998</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>44053</v>
+        <v>44054</v>
       </c>
       <c r="B88">
-        <v>10300</v>
+        <v>10280</v>
       </c>
       <c r="C88">
-        <v>32.706699999999998</v>
+        <v>33.4</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>44054</v>
+        <v>44055</v>
       </c>
       <c r="B89">
-        <v>10280</v>
+        <v>10320</v>
       </c>
       <c r="C89">
-        <v>33.4</v>
+        <v>34.4467</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>44055</v>
+        <v>44056</v>
       </c>
       <c r="B90">
-        <v>10320</v>
+        <v>10400</v>
       </c>
       <c r="C90">
-        <v>34.4467</v>
+        <v>34.2333</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>44056</v>
+        <v>44057</v>
       </c>
       <c r="B91">
-        <v>10400</v>
+        <v>10260</v>
       </c>
       <c r="C91">
-        <v>34.2333</v>
+        <v>33.513300000000001</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>44057</v>
+        <v>44061</v>
       </c>
       <c r="B92">
-        <v>10260</v>
+        <v>10520</v>
       </c>
       <c r="C92">
-        <v>33.513300000000001</v>
+        <v>33.14</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>44061</v>
+        <v>44062</v>
       </c>
       <c r="B93">
-        <v>10520</v>
+        <v>10660</v>
       </c>
       <c r="C93">
-        <v>33.14</v>
+        <v>33.866700000000002</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>44062</v>
+        <v>44063</v>
       </c>
       <c r="B94">
-        <v>10660</v>
+        <v>10740</v>
       </c>
       <c r="C94">
-        <v>33.866700000000002</v>
+        <v>34.073300000000003</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>44063</v>
+        <v>44064</v>
       </c>
       <c r="B95">
-        <v>10740</v>
+        <v>10980</v>
       </c>
       <c r="C95">
-        <v>34.073300000000003</v>
+        <v>34.273299999999999</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>44064</v>
+        <v>44067</v>
       </c>
       <c r="B96">
-        <v>10980</v>
+        <v>11320</v>
       </c>
       <c r="C96">
-        <v>34.273299999999999</v>
+        <v>35.246699999999997</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>44067</v>
+        <v>44068</v>
       </c>
       <c r="B97">
-        <v>11320</v>
+        <v>11860</v>
       </c>
       <c r="C97">
-        <v>35.246699999999997</v>
+        <v>34.146700000000003</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>44068</v>
+        <v>44069</v>
       </c>
       <c r="B98">
-        <v>11860</v>
+        <v>11820</v>
       </c>
       <c r="C98">
-        <v>34.146700000000003</v>
+        <v>34.153300000000002</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>44069</v>
+        <v>44070</v>
       </c>
       <c r="B99">
-        <v>11820</v>
+        <v>11900</v>
       </c>
       <c r="C99">
-        <v>34.153300000000002</v>
+        <v>34.113300000000002</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>44070</v>
+        <v>44071</v>
       </c>
       <c r="B100">
-        <v>11900</v>
+        <v>11780</v>
       </c>
       <c r="C100">
-        <v>34.113300000000002</v>
+        <v>33.673299999999998</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>44071</v>
+        <v>44074</v>
       </c>
       <c r="B101">
-        <v>11780</v>
+        <v>11920</v>
       </c>
       <c r="C101">
-        <v>33.673299999999998</v>
+        <v>33.28</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>44074</v>
+        <v>44075</v>
       </c>
       <c r="B102">
-        <v>11920</v>
+        <v>12400</v>
       </c>
       <c r="C102">
-        <v>33.28</v>
+        <v>33.64</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>44075</v>
+        <v>44076</v>
       </c>
       <c r="B103">
         <v>12400</v>
       </c>
       <c r="C103">
-        <v>33.64</v>
+        <v>35.313299999999998</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>44076</v>
+        <v>44077</v>
       </c>
       <c r="B104">
-        <v>12400</v>
+        <v>12180</v>
       </c>
       <c r="C104">
-        <v>35.313299999999998</v>
+        <v>34.466700000000003</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>44077</v>
+        <v>44078</v>
       </c>
       <c r="B105">
-        <v>12180</v>
+        <v>12300</v>
       </c>
       <c r="C105">
-        <v>34.466700000000003</v>
+        <v>34.14</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>44078</v>
+        <v>44081</v>
       </c>
       <c r="B106">
-        <v>12300</v>
-      </c>
-      <c r="C106">
-        <v>34.14</v>
+        <v>12200</v>
+      </c>
+      <c r="C106" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="B107">
-        <v>12200</v>
-      </c>
-      <c r="C107" t="s">
-        <v>4</v>
+        <v>12220</v>
+      </c>
+      <c r="C107">
+        <v>33.9</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>44082</v>
+        <v>44083</v>
       </c>
       <c r="B108">
-        <v>12220</v>
+        <v>12640</v>
       </c>
       <c r="C108">
-        <v>33.9</v>
+        <v>34.926699999999997</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>44083</v>
+        <v>44084</v>
       </c>
       <c r="B109">
-        <v>12640</v>
+        <v>12400</v>
       </c>
       <c r="C109">
-        <v>34.926699999999997</v>
+        <v>34.28</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>44084</v>
+        <v>44085</v>
       </c>
       <c r="B110">
-        <v>12400</v>
+        <v>12200</v>
       </c>
       <c r="C110">
-        <v>34.28</v>
+        <v>35.066699999999997</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>44085</v>
+        <v>44088</v>
       </c>
       <c r="B111">
-        <v>12200</v>
+        <v>11860</v>
       </c>
       <c r="C111">
-        <v>35.066699999999997</v>
+        <v>35.926699999999997</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>44088</v>
+        <v>44089</v>
       </c>
       <c r="B112">
-        <v>11860</v>
+        <v>11660</v>
       </c>
       <c r="C112">
-        <v>35.926699999999997</v>
+        <v>37.006700000000002</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>44089</v>
+        <v>44090</v>
       </c>
       <c r="B113">
         <v>11660</v>
       </c>
       <c r="C113">
-        <v>37.006700000000002</v>
+        <v>36.726700000000001</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>44090</v>
+        <v>44091</v>
       </c>
       <c r="B114">
-        <v>11660</v>
+        <v>11680</v>
       </c>
       <c r="C114">
-        <v>36.726700000000001</v>
+        <v>37.2667</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>44091</v>
+        <v>44092</v>
       </c>
       <c r="B115">
-        <v>11680</v>
+        <v>11500</v>
       </c>
       <c r="C115">
-        <v>37.2667</v>
+        <v>37.633299999999998</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>44092</v>
+        <v>44095</v>
       </c>
       <c r="B116">
         <v>11500</v>
       </c>
       <c r="C116">
-        <v>37.633299999999998</v>
+        <v>36</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>44095</v>
+        <v>44096</v>
       </c>
       <c r="B117">
-        <v>11500</v>
+        <v>11580</v>
       </c>
       <c r="C117">
-        <v>36</v>
+        <v>36.2667</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>44096</v>
+        <v>44097</v>
       </c>
       <c r="B118">
-        <v>11580</v>
+        <v>11280</v>
       </c>
       <c r="C118">
-        <v>36.2667</v>
+        <v>35.773299999999999</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>44097</v>
+        <v>44098</v>
       </c>
       <c r="B119">
-        <v>11280</v>
+        <v>11100</v>
       </c>
       <c r="C119">
-        <v>35.773299999999999</v>
+        <v>35.793300000000002</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>44098</v>
+        <v>44099</v>
       </c>
       <c r="B120">
-        <v>11100</v>
+        <v>11080</v>
       </c>
       <c r="C120">
-        <v>35.793300000000002</v>
+        <v>36.78</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>44099</v>
+        <v>44102</v>
       </c>
       <c r="B121">
-        <v>11080</v>
+        <v>11260</v>
       </c>
       <c r="C121">
-        <v>36.78</v>
+        <v>37.36</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>44102</v>
+        <v>44103</v>
       </c>
       <c r="B122">
-        <v>11260</v>
+        <v>11380</v>
       </c>
       <c r="C122">
-        <v>37.36</v>
+        <v>37.0867</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>44103</v>
+        <v>44104</v>
       </c>
       <c r="B123">
-        <v>11380</v>
+        <v>11600</v>
       </c>
       <c r="C123">
-        <v>37.0867</v>
+        <v>36.926699999999997</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>44104</v>
+        <v>44105</v>
       </c>
       <c r="B124">
-        <v>11600</v>
+        <v>11700</v>
       </c>
       <c r="C124">
-        <v>36.926699999999997</v>
+        <v>36.880000000000003</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>44105</v>
+        <v>44106</v>
       </c>
       <c r="B125">
-        <v>11700</v>
+        <v>11520</v>
       </c>
       <c r="C125">
-        <v>36.880000000000003</v>
+        <v>36.700000000000003</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>44106</v>
+        <v>44109</v>
       </c>
       <c r="B126">
-        <v>11520</v>
+        <v>11560</v>
       </c>
       <c r="C126">
-        <v>36.700000000000003</v>
+        <v>37.686700000000002</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>44109</v>
+        <v>44110</v>
       </c>
       <c r="B127">
-        <v>11560</v>
+        <v>11400</v>
       </c>
       <c r="C127">
-        <v>37.686700000000002</v>
+        <v>37.706699999999998</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>44110</v>
+        <v>44111</v>
       </c>
       <c r="B128">
-        <v>11400</v>
+        <v>11220</v>
       </c>
       <c r="C128">
-        <v>37.706699999999998</v>
+        <v>38.5533</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>44111</v>
+        <v>44112</v>
       </c>
       <c r="B129">
-        <v>11220</v>
+        <v>11210</v>
       </c>
       <c r="C129">
-        <v>38.5533</v>
+        <v>37.973300000000002</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>44112</v>
+        <v>44113</v>
       </c>
       <c r="B130">
-        <v>11210</v>
+        <v>11200</v>
       </c>
       <c r="C130">
-        <v>37.973300000000002</v>
+        <v>37.286700000000003</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>44113</v>
+        <v>44117</v>
       </c>
       <c r="B131">
-        <v>11200</v>
+        <v>10720</v>
       </c>
       <c r="C131">
-        <v>37.286700000000003</v>
+        <v>37.159999999999997</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>44117</v>
+        <v>44118</v>
       </c>
       <c r="B132">
-        <v>10720</v>
+        <v>10880</v>
       </c>
       <c r="C132">
-        <v>37.159999999999997</v>
+        <v>37.333300000000001</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>44118</v>
+        <v>44119</v>
       </c>
       <c r="B133">
-        <v>10880</v>
+        <v>10860</v>
       </c>
       <c r="C133">
-        <v>37.333300000000001</v>
+        <v>37.299999999999997</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>44119</v>
+        <v>44120</v>
       </c>
       <c r="B134">
-        <v>10860</v>
+        <v>10950</v>
       </c>
       <c r="C134">
-        <v>37.299999999999997</v>
+        <v>38.093299999999999</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>44120</v>
+        <v>44123</v>
       </c>
       <c r="B135">
-        <v>10950</v>
+        <v>10810</v>
       </c>
       <c r="C135">
-        <v>38.093299999999999</v>
+        <v>38.22</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>44123</v>
+        <v>44124</v>
       </c>
       <c r="B136">
-        <v>10810</v>
+        <v>11020</v>
       </c>
       <c r="C136">
-        <v>38.22</v>
+        <v>38.573300000000003</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>44124</v>
+        <v>44125</v>
       </c>
       <c r="B137">
-        <v>11020</v>
+        <v>10880</v>
       </c>
       <c r="C137">
-        <v>38.573300000000003</v>
+        <v>38.613300000000002</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>44125</v>
+        <v>44126</v>
       </c>
       <c r="B138">
-        <v>10880</v>
+        <v>10990</v>
       </c>
       <c r="C138">
-        <v>38.613300000000002</v>
+        <v>39.066699999999997</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>44126</v>
+        <v>44127</v>
       </c>
       <c r="B139">
-        <v>10990</v>
+        <v>10910</v>
       </c>
       <c r="C139">
-        <v>39.066699999999997</v>
+        <v>38.86</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>44127</v>
+        <v>44130</v>
       </c>
       <c r="B140">
-        <v>10910</v>
+        <v>10980</v>
       </c>
       <c r="C140">
-        <v>38.86</v>
+        <v>38.293300000000002</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>44130</v>
+        <v>44131</v>
       </c>
       <c r="B141">
-        <v>10980</v>
+        <v>10600</v>
       </c>
       <c r="C141">
-        <v>38.293300000000002</v>
+        <v>38.020000000000003</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>44131</v>
+        <v>44132</v>
       </c>
       <c r="B142">
-        <v>10600</v>
+        <v>9915</v>
       </c>
       <c r="C142">
-        <v>38.020000000000003</v>
+        <v>36.153300000000002</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>44132</v>
+        <v>44133</v>
       </c>
       <c r="B143">
-        <v>9915</v>
+        <v>10210</v>
       </c>
       <c r="C143">
-        <v>36.153300000000002</v>
+        <v>36.526699999999998</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>44133</v>
+        <v>44134</v>
       </c>
       <c r="B144">
-        <v>10210</v>
+        <v>10620</v>
       </c>
       <c r="C144">
-        <v>36.526699999999998</v>
+        <v>36.313299999999998</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>44134</v>
+        <v>44138</v>
       </c>
       <c r="B145">
-        <v>10620</v>
+        <v>10820</v>
       </c>
       <c r="C145">
-        <v>36.313299999999998</v>
+        <v>39.04</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>44138</v>
+        <v>44139</v>
       </c>
       <c r="B146">
-        <v>10820</v>
+        <v>11080</v>
       </c>
       <c r="C146">
-        <v>39.04</v>
+        <v>39.26</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>44139</v>
+        <v>44140</v>
       </c>
       <c r="B147">
-        <v>11080</v>
+        <v>11240</v>
       </c>
       <c r="C147">
-        <v>39.26</v>
+        <v>41.12</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>44140</v>
+        <v>44141</v>
       </c>
       <c r="B148">
-        <v>11240</v>
+        <v>11370</v>
       </c>
       <c r="C148">
-        <v>41.12</v>
+        <v>41.2667</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>44141</v>
+        <v>44144</v>
       </c>
       <c r="B149">
-        <v>11370</v>
+        <v>11800</v>
       </c>
       <c r="C149">
-        <v>41.2667</v>
+        <v>43.046700000000001</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>44144</v>
+        <v>44145</v>
       </c>
       <c r="B150">
-        <v>11800</v>
+        <v>11610</v>
       </c>
       <c r="C150">
-        <v>43.046700000000001</v>
+        <v>45.366700000000002</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>44145</v>
+        <v>44146</v>
       </c>
       <c r="B151">
-        <v>11610</v>
+        <v>11700</v>
       </c>
       <c r="C151">
-        <v>45.366700000000002</v>
+        <v>45.466700000000003</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>44146</v>
+        <v>44147</v>
       </c>
       <c r="B152">
-        <v>11700</v>
+        <v>11600</v>
       </c>
       <c r="C152">
-        <v>45.466700000000003</v>
+        <v>44.066699999999997</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>44147</v>
+        <v>44148</v>
       </c>
       <c r="B153">
-        <v>11600</v>
+        <v>11460</v>
       </c>
       <c r="C153">
-        <v>44.066699999999997</v>
+        <v>43.973300000000002</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>44148</v>
+        <v>44152</v>
       </c>
       <c r="B154">
-        <v>11460</v>
+        <v>11800</v>
       </c>
       <c r="C154">
-        <v>43.973300000000002</v>
+        <v>44.18</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>44152</v>
+        <v>44153</v>
       </c>
       <c r="B155">
-        <v>11800</v>
+        <v>11900</v>
       </c>
       <c r="C155">
-        <v>44.18</v>
+        <v>44.046700000000001</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>44153</v>
+        <v>44154</v>
       </c>
       <c r="B156">
-        <v>11900</v>
+        <v>11860</v>
       </c>
       <c r="C156">
-        <v>44.046700000000001</v>
+        <v>43.4</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>44154</v>
+        <v>44155</v>
       </c>
       <c r="B157">
-        <v>11860</v>
+        <v>11900</v>
       </c>
       <c r="C157">
-        <v>43.4</v>
+        <v>44.08</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>44155</v>
+        <v>44158</v>
       </c>
       <c r="B158">
-        <v>11900</v>
+        <v>12090</v>
       </c>
       <c r="C158">
-        <v>44.08</v>
+        <v>45.02</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>44158</v>
+        <v>44159</v>
       </c>
       <c r="B159">
-        <v>12090</v>
+        <v>12290</v>
       </c>
       <c r="C159">
-        <v>45.02</v>
+        <v>46.44</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>44159</v>
+        <v>44160</v>
       </c>
       <c r="B160">
-        <v>12290</v>
+        <v>12300</v>
       </c>
       <c r="C160">
-        <v>46.44</v>
+        <v>46.173299999999998</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>44160</v>
+        <v>44161</v>
       </c>
       <c r="B161">
         <v>12300</v>
       </c>
-      <c r="C161">
-        <v>46.173299999999998</v>
+      <c r="C161" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>44161</v>
+        <v>44162</v>
       </c>
       <c r="B162">
-        <v>12300</v>
-      </c>
-      <c r="C162" t="s">
-        <v>4</v>
+        <v>12060</v>
+      </c>
+      <c r="C162">
+        <v>44.846699999999998</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>44162</v>
+        <v>44165</v>
       </c>
       <c r="B163">
-        <v>12060</v>
+        <v>12000</v>
       </c>
       <c r="C163">
-        <v>44.846699999999998</v>
+        <v>44.433300000000003</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>44165</v>
+        <v>44166</v>
       </c>
       <c r="B164">
-        <v>12000</v>
+        <v>12420</v>
       </c>
       <c r="C164">
-        <v>44.433300000000003</v>
+        <v>43.453299999999999</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>44166</v>
+        <v>44167</v>
       </c>
       <c r="B165">
-        <v>12420</v>
+        <v>12200</v>
       </c>
       <c r="C165">
-        <v>43.453299999999999</v>
+        <v>43.64</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>44167</v>
+        <v>44168</v>
       </c>
       <c r="B166">
-        <v>12200</v>
+        <v>12400</v>
       </c>
       <c r="C166">
-        <v>43.64</v>
+        <v>44.006700000000002</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>44168</v>
+        <v>44169</v>
       </c>
       <c r="B167">
-        <v>12400</v>
+        <v>13000</v>
       </c>
       <c r="C167">
-        <v>44.006700000000002</v>
+        <v>45.546700000000001</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>44169</v>
+        <v>44172</v>
       </c>
       <c r="B168">
-        <v>13000</v>
+        <v>13200</v>
       </c>
       <c r="C168">
-        <v>45.546700000000001</v>
+        <v>44.8733</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>44172</v>
+        <v>44174</v>
       </c>
       <c r="B169">
-        <v>13200</v>
+        <v>13420</v>
       </c>
       <c r="C169">
-        <v>44.8733</v>
+        <v>45.906700000000001</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>44174</v>
+        <v>44175</v>
       </c>
       <c r="B170">
-        <v>13420</v>
+        <v>13000</v>
       </c>
       <c r="C170">
-        <v>45.906700000000001</v>
+        <v>46.033299999999997</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>44175</v>
+        <v>44176</v>
       </c>
       <c r="B171">
-        <v>13000</v>
+        <v>13300</v>
       </c>
       <c r="C171">
-        <v>46.033299999999997</v>
+        <v>45.346699999999998</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>44176</v>
+        <v>44179</v>
       </c>
       <c r="B172">
-        <v>13300</v>
+        <v>13740</v>
       </c>
       <c r="C172">
-        <v>45.346699999999998</v>
+        <v>44.84</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>44179</v>
+        <v>44180</v>
       </c>
       <c r="B173">
-        <v>13740</v>
+        <v>13710</v>
       </c>
       <c r="C173">
-        <v>44.84</v>
+        <v>45.26</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>44180</v>
+        <v>44181</v>
       </c>
       <c r="B174">
-        <v>13710</v>
+        <v>14050</v>
       </c>
       <c r="C174">
-        <v>45.26</v>
+        <v>45.56</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>44181</v>
+        <v>44182</v>
       </c>
       <c r="B175">
-        <v>14050</v>
+        <v>14390</v>
       </c>
       <c r="C175">
-        <v>45.56</v>
+        <v>46.473300000000002</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="B176">
-        <v>14390</v>
+        <v>14030</v>
       </c>
       <c r="C176">
-        <v>46.473300000000002</v>
+        <v>45.826700000000002</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>44183</v>
+        <v>44186</v>
       </c>
       <c r="B177">
-        <v>14030</v>
+        <v>13280</v>
       </c>
       <c r="C177">
-        <v>45.826700000000002</v>
+        <v>45.9133</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>44186</v>
+        <v>44187</v>
       </c>
       <c r="B178">
-        <v>13280</v>
+        <v>13440</v>
       </c>
       <c r="C178">
-        <v>45.9133</v>
+        <v>46.74</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="B179">
-        <v>13440</v>
+        <v>13780</v>
       </c>
       <c r="C179">
-        <v>46.74</v>
+        <v>48.546700000000001</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>44188</v>
-      </c>
-      <c r="B180">
-        <v>13780</v>
+        <v>44189</v>
+      </c>
+      <c r="B180" t="s">
+        <v>3</v>
       </c>
       <c r="C180">
-        <v>48.546700000000001</v>
+        <v>49.013300000000001</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>44189</v>
-      </c>
-      <c r="B181" t="s">
-        <v>4</v>
+        <v>44193</v>
+      </c>
+      <c r="B181">
+        <v>14080</v>
       </c>
       <c r="C181">
-        <v>49.013300000000001</v>
+        <v>48.326700000000002</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>44193</v>
+        <v>44194</v>
       </c>
       <c r="B182">
-        <v>14080</v>
+        <v>14500</v>
       </c>
       <c r="C182">
-        <v>48.326700000000002</v>
+        <v>47.726700000000001</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="B183">
-        <v>14500</v>
+        <v>13900</v>
       </c>
       <c r="C183">
-        <v>47.726700000000001</v>
+        <v>48.22</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>44195</v>
+        <v>44200</v>
       </c>
       <c r="B184">
-        <v>13900</v>
+        <v>13990</v>
       </c>
       <c r="C184">
-        <v>48.22</v>
+        <v>46.86</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>44200</v>
+        <v>44201</v>
       </c>
       <c r="B185">
-        <v>13990</v>
+        <v>13900</v>
       </c>
       <c r="C185">
-        <v>46.86</v>
+        <v>46.84</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>44201</v>
+        <v>44202</v>
       </c>
       <c r="B186">
-        <v>13900</v>
+        <v>14110</v>
       </c>
       <c r="C186">
-        <v>46.84</v>
+        <v>44.013300000000001</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>44202</v>
+        <v>44203</v>
       </c>
       <c r="B187">
-        <v>14110</v>
+        <v>13430</v>
       </c>
       <c r="C187">
-        <v>44.013300000000001</v>
+        <v>43.333300000000001</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>44203</v>
+        <v>44204</v>
       </c>
       <c r="B188">
-        <v>13430</v>
+        <v>13800</v>
       </c>
       <c r="C188">
-        <v>43.333300000000001</v>
+        <v>43.646700000000003</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>44204</v>
+        <v>44208</v>
       </c>
       <c r="B189">
-        <v>13800</v>
+        <v>13920</v>
       </c>
       <c r="C189">
-        <v>43.646700000000003</v>
+        <v>43.866700000000002</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>44208</v>
+        <v>44209</v>
       </c>
       <c r="B190">
-        <v>13920</v>
+        <v>13730</v>
       </c>
       <c r="C190">
-        <v>43.866700000000002</v>
+        <v>44.68</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>44209</v>
+        <v>44210</v>
       </c>
       <c r="B191">
-        <v>13730</v>
+        <v>14000</v>
       </c>
       <c r="C191">
-        <v>44.68</v>
+        <v>43.96</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>44210</v>
+        <v>44211</v>
       </c>
       <c r="B192">
         <v>14000</v>
       </c>
       <c r="C192">
-        <v>43.96</v>
+        <v>44.806699999999999</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>44211</v>
+        <v>44214</v>
       </c>
       <c r="B193">
-        <v>14000</v>
-      </c>
-      <c r="C193">
-        <v>44.806699999999999</v>
+        <v>13900</v>
+      </c>
+      <c r="C193" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>44214</v>
+        <v>44215</v>
       </c>
       <c r="B194">
-        <v>13900</v>
-      </c>
-      <c r="C194" t="s">
-        <v>4</v>
+        <v>13960</v>
+      </c>
+      <c r="C194">
+        <v>45.54</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="B195">
-        <v>13960</v>
+        <v>13900</v>
       </c>
       <c r="C195">
-        <v>45.54</v>
+        <v>45.886699999999998</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="B196">
-        <v>13900</v>
+        <v>13830</v>
       </c>
       <c r="C196">
-        <v>45.886699999999998</v>
+        <v>45.246699999999997</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="B197">
-        <v>13830</v>
+        <v>13900</v>
       </c>
       <c r="C197">
-        <v>45.246699999999997</v>
+        <v>45.906700000000001</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>44218</v>
+        <v>44221</v>
       </c>
       <c r="B198">
-        <v>13900</v>
+        <v>13750</v>
       </c>
       <c r="C198">
-        <v>45.906700000000001</v>
+        <v>44.606699999999996</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>44221</v>
+        <v>44222</v>
       </c>
       <c r="B199">
-        <v>13750</v>
+        <v>13560</v>
       </c>
       <c r="C199">
-        <v>44.606699999999996</v>
+        <v>43.673299999999998</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>44222</v>
+        <v>44223</v>
       </c>
       <c r="B200">
-        <v>13560</v>
+        <v>13570</v>
       </c>
       <c r="C200">
-        <v>43.673299999999998</v>
+        <v>42.893300000000004</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>44223</v>
+        <v>44224</v>
       </c>
       <c r="B201">
-        <v>13570</v>
+        <v>13740</v>
       </c>
       <c r="C201">
-        <v>42.893300000000004</v>
+        <v>43.966700000000003</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>44224</v>
+        <v>44225</v>
       </c>
       <c r="B202">
-        <v>13740</v>
+        <v>13300</v>
       </c>
       <c r="C202">
-        <v>43.966700000000003</v>
+        <v>44.72</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>44225</v>
+        <v>44228</v>
       </c>
       <c r="B203">
-        <v>13300</v>
+        <v>13010</v>
       </c>
       <c r="C203">
-        <v>44.72</v>
+        <v>45.286700000000003</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>44228</v>
+        <v>44229</v>
       </c>
       <c r="B204">
-        <v>13010</v>
+        <v>13560</v>
       </c>
       <c r="C204">
-        <v>45.286700000000003</v>
+        <v>43.633299999999998</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>44229</v>
+        <v>44230</v>
       </c>
       <c r="B205">
-        <v>13560</v>
+        <v>13420</v>
       </c>
       <c r="C205">
-        <v>43.633299999999998</v>
+        <v>43.306699999999999</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>44230</v>
+        <v>44231</v>
       </c>
       <c r="B206">
-        <v>13420</v>
+        <v>13240</v>
       </c>
       <c r="C206">
-        <v>43.306699999999999</v>
+        <v>43.96</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>44231</v>
+        <v>44232</v>
       </c>
       <c r="B207">
-        <v>13240</v>
+        <v>13210</v>
       </c>
       <c r="C207">
-        <v>43.96</v>
+        <v>43.66</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>44232</v>
+        <v>44235</v>
       </c>
       <c r="B208">
-        <v>13210</v>
+        <v>13300</v>
       </c>
       <c r="C208">
-        <v>43.66</v>
+        <v>42.2</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>44235</v>
+        <v>44236</v>
       </c>
       <c r="B209">
-        <v>13300</v>
+        <v>13280</v>
       </c>
       <c r="C209">
-        <v>42.2</v>
+        <v>42.2333</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>44236</v>
+        <v>44237</v>
       </c>
       <c r="B210">
-        <v>13280</v>
+        <v>13150</v>
       </c>
       <c r="C210">
-        <v>42.2333</v>
+        <v>41.94</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>44237</v>
+        <v>44238</v>
       </c>
       <c r="B211">
-        <v>13150</v>
+        <v>13090</v>
       </c>
       <c r="C211">
-        <v>41.94</v>
+        <v>41.18</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>44238</v>
+        <v>44239</v>
       </c>
       <c r="B212">
-        <v>13090</v>
+        <v>13280</v>
       </c>
       <c r="C212">
-        <v>41.18</v>
+        <v>39.659999999999997</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>44239</v>
+        <v>44242</v>
       </c>
       <c r="B213">
-        <v>13280</v>
-      </c>
-      <c r="C213">
-        <v>39.659999999999997</v>
+        <v>13150</v>
+      </c>
+      <c r="C213" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>44242</v>
+        <v>44243</v>
       </c>
       <c r="B214">
-        <v>13150</v>
-      </c>
-      <c r="C214" t="s">
-        <v>4</v>
+        <v>13110</v>
+      </c>
+      <c r="C214">
+        <v>40.493299999999998</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>44243</v>
+        <v>44244</v>
       </c>
       <c r="B215">
-        <v>13110</v>
+        <v>13030</v>
       </c>
       <c r="C215">
-        <v>40.493299999999998</v>
+        <v>40.2667</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>44244</v>
+        <v>44245</v>
       </c>
       <c r="B216">
-        <v>13030</v>
+        <v>12830</v>
       </c>
       <c r="C216">
-        <v>40.2667</v>
+        <v>40.200000000000003</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>44245</v>
+        <v>44246</v>
       </c>
       <c r="B217">
-        <v>12830</v>
+        <v>12640</v>
       </c>
       <c r="C217">
-        <v>40.200000000000003</v>
+        <v>41.106699999999996</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>44246</v>
+        <v>44249</v>
       </c>
       <c r="B218">
-        <v>12640</v>
+        <v>12840</v>
       </c>
       <c r="C218">
-        <v>41.106699999999996</v>
+        <v>41.366700000000002</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>44249</v>
+        <v>44250</v>
       </c>
       <c r="B219">
-        <v>12840</v>
+        <v>12780</v>
       </c>
       <c r="C219">
-        <v>41.366700000000002</v>
+        <v>42.193300000000001</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="B220">
-        <v>12780</v>
+        <v>12880</v>
       </c>
       <c r="C220">
-        <v>42.193300000000001</v>
+        <v>43.173299999999998</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>44251</v>
+        <v>44252</v>
       </c>
       <c r="B221">
-        <v>12880</v>
+        <v>12780</v>
       </c>
       <c r="C221">
-        <v>43.173299999999998</v>
+        <v>43.613300000000002</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>44252</v>
+        <v>44253</v>
       </c>
       <c r="B222">
-        <v>12780</v>
+        <v>13300</v>
       </c>
       <c r="C222">
-        <v>43.613300000000002</v>
+        <v>44.146700000000003</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>44253</v>
+        <v>44256</v>
       </c>
       <c r="B223">
-        <v>13300</v>
+        <v>13060</v>
       </c>
       <c r="C223">
-        <v>44.146700000000003</v>
+        <v>44.993299999999998</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>44256</v>
+        <v>44257</v>
       </c>
       <c r="B224">
-        <v>13060</v>
+        <v>13000</v>
       </c>
       <c r="C224">
-        <v>44.993299999999998</v>
+        <v>45.213299999999997</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>44257</v>
+        <v>44258</v>
       </c>
       <c r="B225">
-        <v>13000</v>
+        <v>12790</v>
       </c>
       <c r="C225">
-        <v>45.213299999999997</v>
+        <v>45.066699999999997</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>44258</v>
+        <v>44259</v>
       </c>
       <c r="B226">
-        <v>12790</v>
+        <v>12500</v>
       </c>
       <c r="C226">
-        <v>45.066699999999997</v>
+        <v>45.34</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>44259</v>
+        <v>44260</v>
       </c>
       <c r="B227">
-        <v>12500</v>
+        <v>12400</v>
       </c>
       <c r="C227">
-        <v>45.34</v>
+        <v>46.5533</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>44260</v>
+        <v>44263</v>
       </c>
       <c r="B228">
-        <v>12400</v>
+        <v>12430</v>
       </c>
       <c r="C228">
-        <v>46.5533</v>
+        <v>46.866700000000002</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="B229">
-        <v>12430</v>
+        <v>12580</v>
       </c>
       <c r="C229">
-        <v>46.866700000000002</v>
+        <v>47.993299999999998</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>44264</v>
+        <v>44265</v>
       </c>
       <c r="B230">
-        <v>12580</v>
+        <v>12780</v>
       </c>
       <c r="C230">
-        <v>47.993299999999998</v>
+        <v>48.62</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>44265</v>
+        <v>44266</v>
       </c>
       <c r="B231">
-        <v>12780</v>
+        <v>12940</v>
       </c>
       <c r="C231">
-        <v>48.62</v>
+        <v>50.246699999999997</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>44266</v>
+        <v>44267</v>
       </c>
       <c r="B232">
-        <v>12940</v>
+        <v>12840</v>
       </c>
       <c r="C232">
-        <v>50.246699999999997</v>
+        <v>50.793300000000002</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>44267</v>
+        <v>44270</v>
       </c>
       <c r="B233">
-        <v>12840</v>
+        <v>12500</v>
       </c>
       <c r="C233">
-        <v>50.793300000000002</v>
+        <v>48.806699999999999</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>44270</v>
+        <v>44271</v>
       </c>
       <c r="B234">
-        <v>12500</v>
+        <v>12400</v>
       </c>
       <c r="C234">
-        <v>48.806699999999999</v>
+        <v>48.253300000000003</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>44271</v>
+        <v>44272</v>
       </c>
       <c r="B235">
-        <v>12400</v>
+        <v>12240</v>
       </c>
       <c r="C235">
-        <v>48.253300000000003</v>
+        <v>48.78</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>44272</v>
+        <v>44273</v>
       </c>
       <c r="B236">
-        <v>12240</v>
+        <v>11900</v>
       </c>
       <c r="C236">
-        <v>48.78</v>
+        <v>46.0867</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>44273</v>
+        <v>44274</v>
       </c>
       <c r="B237">
-        <v>11900</v>
+        <v>11400</v>
       </c>
       <c r="C237">
-        <v>46.0867</v>
+        <v>46.726700000000001</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>44274</v>
+        <v>44278</v>
       </c>
       <c r="B238">
-        <v>11400</v>
+        <v>11490</v>
       </c>
       <c r="C238">
         <v>46.726700000000001</v>
@@ -3032,1396 +3032,1396 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>44278</v>
+        <v>44279</v>
       </c>
       <c r="B239">
-        <v>11490</v>
+        <v>11650</v>
       </c>
       <c r="C239">
-        <v>46.726700000000001</v>
+        <v>47.833300000000001</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>44279</v>
+        <v>44280</v>
       </c>
       <c r="B240">
-        <v>11650</v>
+        <v>11600</v>
       </c>
       <c r="C240">
-        <v>47.833300000000001</v>
+        <v>47.933300000000003</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>44280</v>
+        <v>44281</v>
       </c>
       <c r="B241">
-        <v>11600</v>
+        <v>11570</v>
       </c>
       <c r="C241">
-        <v>47.933300000000003</v>
+        <v>49.793300000000002</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>44281</v>
+        <v>44284</v>
       </c>
       <c r="B242">
-        <v>11570</v>
+        <v>11590</v>
       </c>
       <c r="C242">
-        <v>49.793300000000002</v>
+        <v>50.073300000000003</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>44284</v>
+        <v>44285</v>
       </c>
       <c r="B243">
-        <v>11590</v>
+        <v>11850</v>
       </c>
       <c r="C243">
-        <v>50.073300000000003</v>
+        <v>50.2667</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>44285</v>
+        <v>44286</v>
       </c>
       <c r="B244">
-        <v>11850</v>
+        <v>11780</v>
       </c>
       <c r="C244">
-        <v>50.2667</v>
+        <v>50.9133</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>44286</v>
+        <v>44291</v>
       </c>
       <c r="B245">
         <v>11780</v>
       </c>
       <c r="C245">
-        <v>50.9133</v>
+        <v>51.093299999999999</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="B246">
-        <v>11780</v>
+        <v>12010</v>
       </c>
       <c r="C246">
-        <v>51.093299999999999</v>
+        <v>49.546700000000001</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>44292</v>
+        <v>44293</v>
       </c>
       <c r="B247">
-        <v>12010</v>
+        <v>12000</v>
       </c>
       <c r="C247">
-        <v>49.546700000000001</v>
+        <v>49</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>44293</v>
+        <v>44294</v>
       </c>
       <c r="B248">
-        <v>12000</v>
+        <v>11880</v>
       </c>
       <c r="C248">
-        <v>49</v>
+        <v>48.773299999999999</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>44294</v>
+        <v>44295</v>
       </c>
       <c r="B249">
-        <v>11880</v>
+        <v>11700</v>
       </c>
       <c r="C249">
-        <v>48.773299999999999</v>
+        <v>49.6</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
-        <v>44295</v>
+        <v>44298</v>
       </c>
       <c r="B250">
-        <v>11700</v>
+        <v>11570</v>
       </c>
       <c r="C250">
-        <v>49.6</v>
+        <v>49.466700000000003</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <v>44298</v>
+        <v>44299</v>
       </c>
       <c r="B251">
-        <v>11570</v>
+        <v>11500</v>
       </c>
       <c r="C251">
-        <v>49.466700000000003</v>
+        <v>49.0867</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>44299</v>
+        <v>44300</v>
       </c>
       <c r="B252">
         <v>11500</v>
       </c>
       <c r="C252">
-        <v>49.0867</v>
+        <v>48.9467</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>44300</v>
+        <v>44301</v>
       </c>
       <c r="B253">
-        <v>11500</v>
+        <v>11400</v>
       </c>
       <c r="C253">
-        <v>48.9467</v>
+        <v>48.7667</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
-        <v>44301</v>
+        <v>44302</v>
       </c>
       <c r="B254">
-        <v>11400</v>
+        <v>11520</v>
       </c>
       <c r="C254">
-        <v>48.7667</v>
+        <v>48.58</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>44302</v>
+        <v>44305</v>
       </c>
       <c r="B255">
-        <v>11520</v>
+        <v>11360</v>
       </c>
       <c r="C255">
-        <v>48.58</v>
+        <v>49.333300000000001</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
-        <v>44305</v>
+        <v>44306</v>
       </c>
       <c r="B256">
-        <v>11360</v>
+        <v>11430</v>
       </c>
       <c r="C256">
-        <v>49.333300000000001</v>
+        <v>50.04</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
-        <v>44306</v>
+        <v>44307</v>
       </c>
       <c r="B257">
-        <v>11430</v>
+        <v>11400</v>
       </c>
       <c r="C257">
-        <v>50.04</v>
+        <v>48.98</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
-        <v>44307</v>
+        <v>44308</v>
       </c>
       <c r="B258">
-        <v>11400</v>
+        <v>11350</v>
       </c>
       <c r="C258">
-        <v>48.98</v>
+        <v>48.433300000000003</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
-        <v>44308</v>
+        <v>44309</v>
       </c>
       <c r="B259">
-        <v>11350</v>
+        <v>11280</v>
       </c>
       <c r="C259">
-        <v>48.433300000000003</v>
+        <v>47.82</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
-        <v>44309</v>
+        <v>44312</v>
       </c>
       <c r="B260">
-        <v>11280</v>
+        <v>11000</v>
       </c>
       <c r="C260">
-        <v>47.82</v>
+        <v>48.32</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
-        <v>44312</v>
+        <v>44313</v>
       </c>
       <c r="B261">
-        <v>11000</v>
+        <v>10900</v>
       </c>
       <c r="C261">
-        <v>48.32</v>
+        <v>48.673299999999998</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
-        <v>44313</v>
+        <v>44314</v>
       </c>
       <c r="B262">
-        <v>10900</v>
+        <v>11040</v>
       </c>
       <c r="C262">
-        <v>48.673299999999998</v>
+        <v>48.6267</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
-        <v>44314</v>
+        <v>44315</v>
       </c>
       <c r="B263">
-        <v>11040</v>
+        <v>10810</v>
       </c>
       <c r="C263">
-        <v>48.6267</v>
+        <v>49.36</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="B264">
-        <v>10810</v>
+        <v>10590</v>
       </c>
       <c r="C264">
-        <v>49.36</v>
+        <v>48.02</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="B265">
-        <v>10590</v>
+        <v>9930</v>
       </c>
       <c r="C265">
-        <v>48.02</v>
+        <v>47.486699999999999</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
-        <v>44319</v>
+        <v>44320</v>
       </c>
       <c r="B266">
-        <v>9930</v>
+        <v>10020</v>
       </c>
       <c r="C266">
-        <v>47.486699999999999</v>
+        <v>47.1267</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
-        <v>44320</v>
+        <v>44321</v>
       </c>
       <c r="B267">
-        <v>10020</v>
+        <v>10190</v>
       </c>
       <c r="C267">
-        <v>47.1267</v>
+        <v>47.926699999999997</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
-        <v>44321</v>
+        <v>44322</v>
       </c>
       <c r="B268">
-        <v>10190</v>
+        <v>10600</v>
       </c>
       <c r="C268">
-        <v>47.926699999999997</v>
+        <v>48.34</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
-        <v>44322</v>
+        <v>44323</v>
       </c>
       <c r="B269">
-        <v>10600</v>
+        <v>11300</v>
       </c>
       <c r="C269">
-        <v>48.34</v>
+        <v>49.26</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
-        <v>44323</v>
+        <v>44326</v>
       </c>
       <c r="B270">
-        <v>11300</v>
+        <v>11800</v>
       </c>
       <c r="C270">
-        <v>49.26</v>
+        <v>49.0867</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
-        <v>44326</v>
+        <v>44327</v>
       </c>
       <c r="B271">
-        <v>11800</v>
+        <v>11400</v>
       </c>
       <c r="C271">
-        <v>49.0867</v>
+        <v>48.173299999999998</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
-        <v>44327</v>
+        <v>44328</v>
       </c>
       <c r="B272">
-        <v>11400</v>
+        <v>11160</v>
       </c>
       <c r="C272">
-        <v>48.173299999999998</v>
+        <v>47.04</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
-        <v>44328</v>
+        <v>44329</v>
       </c>
       <c r="B273">
-        <v>11160</v>
+        <v>11050</v>
       </c>
       <c r="C273">
-        <v>47.04</v>
+        <v>47.506700000000002</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
-        <v>44329</v>
+        <v>44330</v>
       </c>
       <c r="B274">
-        <v>11050</v>
+        <v>11280</v>
       </c>
       <c r="C274">
-        <v>47.506700000000002</v>
+        <v>46.98</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
-        <v>44330</v>
+        <v>44334</v>
       </c>
       <c r="B275">
-        <v>11280</v>
+        <v>11000</v>
       </c>
       <c r="C275">
-        <v>46.98</v>
+        <v>46.68</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
-        <v>44334</v>
+        <v>44335</v>
       </c>
       <c r="B276">
-        <v>11000</v>
+        <v>10700</v>
       </c>
       <c r="C276">
-        <v>46.68</v>
+        <v>46.226700000000001</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
-        <v>44335</v>
+        <v>44336</v>
       </c>
       <c r="B277">
-        <v>10700</v>
+        <v>10980</v>
       </c>
       <c r="C277">
-        <v>46.226700000000001</v>
+        <v>46.926699999999997</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
-        <v>44336</v>
+        <v>44337</v>
       </c>
       <c r="B278">
-        <v>10980</v>
+        <v>10780</v>
       </c>
       <c r="C278">
-        <v>46.926699999999997</v>
+        <v>45.66</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
-        <v>44337</v>
+        <v>44340</v>
       </c>
       <c r="B279">
-        <v>10780</v>
+        <v>10380</v>
       </c>
       <c r="C279">
-        <v>45.66</v>
+        <v>46.286700000000003</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
-        <v>44340</v>
+        <v>44341</v>
       </c>
       <c r="B280">
-        <v>10380</v>
+        <v>9915</v>
       </c>
       <c r="C280">
-        <v>46.286700000000003</v>
+        <v>46.64</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
-        <v>44341</v>
+        <v>44342</v>
       </c>
       <c r="B281">
-        <v>9915</v>
+        <v>9910</v>
       </c>
       <c r="C281">
-        <v>46.64</v>
+        <v>47.953299999999999</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="B282">
-        <v>9910</v>
+        <v>9000</v>
       </c>
       <c r="C282">
-        <v>47.953299999999999</v>
+        <v>46.54</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
-        <v>44343</v>
+        <v>44344</v>
       </c>
       <c r="B283">
-        <v>9000</v>
+        <v>10270</v>
       </c>
       <c r="C283">
-        <v>46.54</v>
+        <v>47.72</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
-        <v>44344</v>
+        <v>44347</v>
       </c>
       <c r="B284">
-        <v>10270</v>
-      </c>
-      <c r="C284">
-        <v>47.72</v>
+        <v>10100</v>
+      </c>
+      <c r="C284" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
-        <v>44347</v>
+        <v>44348</v>
       </c>
       <c r="B285">
-        <v>10100</v>
-      </c>
-      <c r="C285" t="s">
-        <v>4</v>
+        <v>10220</v>
+      </c>
+      <c r="C285">
+        <v>50.066699999999997</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
-        <v>44348</v>
+        <v>44349</v>
       </c>
       <c r="B286">
-        <v>10220</v>
+        <v>10250</v>
       </c>
       <c r="C286">
-        <v>50.066699999999997</v>
+        <v>48.853299999999997</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
-        <v>44349</v>
+        <v>44350</v>
       </c>
       <c r="B287">
-        <v>10250</v>
+        <v>10340</v>
       </c>
       <c r="C287">
-        <v>48.853299999999997</v>
+        <v>48.673299999999998</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="B288">
-        <v>10340</v>
+        <v>10220</v>
       </c>
       <c r="C288">
-        <v>48.673299999999998</v>
+        <v>48.42</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
-        <v>44351</v>
+        <v>44355</v>
       </c>
       <c r="B289">
-        <v>10220</v>
+        <v>10320</v>
       </c>
       <c r="C289">
-        <v>48.42</v>
+        <v>47.4467</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
-        <v>44355</v>
+        <v>44356</v>
       </c>
       <c r="B290">
-        <v>10320</v>
+        <v>10200</v>
       </c>
       <c r="C290">
-        <v>47.4467</v>
+        <v>46.26</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
-        <v>44356</v>
+        <v>44357</v>
       </c>
       <c r="B291">
-        <v>10200</v>
+        <v>10380</v>
       </c>
       <c r="C291">
-        <v>46.26</v>
+        <v>45.84</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
-        <v>44357</v>
+        <v>44358</v>
       </c>
       <c r="B292">
-        <v>10380</v>
+        <v>10290</v>
       </c>
       <c r="C292">
-        <v>45.84</v>
+        <v>46.5867</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
-        <v>44358</v>
+        <v>44362</v>
       </c>
       <c r="B293">
-        <v>10290</v>
+        <v>10200</v>
       </c>
       <c r="C293">
-        <v>46.5867</v>
+        <v>48.066699999999997</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
-        <v>44362</v>
+        <v>44363</v>
       </c>
       <c r="B294">
-        <v>10200</v>
+        <v>10100</v>
       </c>
       <c r="C294">
-        <v>48.066699999999997</v>
+        <v>47.606699999999996</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
-        <v>44363</v>
+        <v>44364</v>
       </c>
       <c r="B295">
-        <v>10100</v>
+        <v>10190</v>
       </c>
       <c r="C295">
-        <v>47.606699999999996</v>
+        <v>47.906700000000001</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
-        <v>44364</v>
+        <v>44365</v>
       </c>
       <c r="B296">
-        <v>10190</v>
+        <v>10500</v>
       </c>
       <c r="C296">
-        <v>47.906700000000001</v>
+        <v>48.1267</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
-        <v>44365</v>
+        <v>44368</v>
       </c>
       <c r="B297">
-        <v>10500</v>
+        <v>10310</v>
       </c>
       <c r="C297">
-        <v>48.1267</v>
+        <v>48.453299999999999</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
-        <v>44368</v>
+        <v>44369</v>
       </c>
       <c r="B298">
         <v>10310</v>
       </c>
       <c r="C298">
-        <v>48.453299999999999</v>
+        <v>49.02</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
-        <v>44369</v>
+        <v>44370</v>
       </c>
       <c r="B299">
-        <v>10310</v>
+        <v>10200</v>
       </c>
       <c r="C299">
-        <v>49.02</v>
+        <v>48.48</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
-        <v>44370</v>
+        <v>44371</v>
       </c>
       <c r="B300">
-        <v>10200</v>
+        <v>10560</v>
       </c>
       <c r="C300">
-        <v>48.48</v>
+        <v>48.493299999999998</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="B301">
-        <v>10560</v>
+        <v>10800</v>
       </c>
       <c r="C301">
-        <v>48.493299999999998</v>
+        <v>49.16</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
-        <v>44372</v>
+        <v>44375</v>
       </c>
       <c r="B302">
-        <v>10800</v>
+        <v>10770</v>
       </c>
       <c r="C302">
-        <v>49.16</v>
+        <v>48.753300000000003</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
-        <v>44375</v>
+        <v>44376</v>
       </c>
       <c r="B303">
-        <v>10770</v>
+        <v>10400</v>
       </c>
       <c r="C303">
-        <v>48.753300000000003</v>
+        <v>48.673299999999998</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="B304">
-        <v>10400</v>
+        <v>10000</v>
       </c>
       <c r="C304">
-        <v>48.673299999999998</v>
+        <v>50.2667</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
-        <v>44377</v>
+        <v>44378</v>
       </c>
       <c r="B305">
-        <v>10000</v>
+        <v>10100</v>
       </c>
       <c r="C305">
-        <v>50.2667</v>
+        <v>51.813299999999998</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
-        <v>44378</v>
+        <v>44379</v>
       </c>
       <c r="B306">
-        <v>10100</v>
+        <v>10500</v>
       </c>
       <c r="C306">
-        <v>51.813299999999998</v>
+        <v>52.453299999999999</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
-        <v>44379</v>
+        <v>44383</v>
       </c>
       <c r="B307">
-        <v>10500</v>
+        <v>10590</v>
       </c>
       <c r="C307">
-        <v>52.453299999999999</v>
+        <v>53.3</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
-        <v>44383</v>
+        <v>44384</v>
       </c>
       <c r="B308">
-        <v>10590</v>
+        <v>10510</v>
       </c>
       <c r="C308">
-        <v>53.3</v>
+        <v>53.64</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
-        <v>44384</v>
+        <v>44385</v>
       </c>
       <c r="B309">
-        <v>10510</v>
+        <v>10500</v>
       </c>
       <c r="C309">
-        <v>53.64</v>
+        <v>52.026699999999998</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
-        <v>44385</v>
+        <v>44386</v>
       </c>
       <c r="B310">
-        <v>10500</v>
+        <v>10420</v>
       </c>
       <c r="C310">
-        <v>52.026699999999998</v>
+        <v>52.213299999999997</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
-        <v>44386</v>
+        <v>44389</v>
       </c>
       <c r="B311">
-        <v>10420</v>
+        <v>10550</v>
       </c>
       <c r="C311">
-        <v>52.213299999999997</v>
+        <v>51.926699999999997</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
-        <v>44389</v>
+        <v>44390</v>
       </c>
       <c r="B312">
-        <v>10550</v>
+        <v>10450</v>
       </c>
       <c r="C312">
-        <v>51.926699999999997</v>
+        <v>50.546700000000001</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
-        <v>44390</v>
+        <v>44391</v>
       </c>
       <c r="B313">
-        <v>10450</v>
+        <v>10520</v>
       </c>
       <c r="C313">
-        <v>50.546700000000001</v>
+        <v>50.933300000000003</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
-        <v>44391</v>
+        <v>44392</v>
       </c>
       <c r="B314">
         <v>10520</v>
       </c>
       <c r="C314">
-        <v>50.933300000000003</v>
+        <v>47.966700000000003</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
-        <v>44392</v>
+        <v>44393</v>
       </c>
       <c r="B315">
-        <v>10520</v>
+        <v>10500</v>
       </c>
       <c r="C315">
-        <v>47.966700000000003</v>
+        <v>47.473300000000002</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
-        <v>44393</v>
+        <v>44396</v>
       </c>
       <c r="B316">
-        <v>10500</v>
+        <v>10300</v>
       </c>
       <c r="C316">
-        <v>47.473300000000002</v>
+        <v>45.406700000000001</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
-        <v>44396</v>
+        <v>44398</v>
       </c>
       <c r="B317">
-        <v>10300</v>
+        <v>10400</v>
       </c>
       <c r="C317">
-        <v>45.406700000000001</v>
+        <v>45.506700000000002</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
-        <v>44398</v>
+        <v>44399</v>
       </c>
       <c r="B318">
-        <v>10400</v>
+        <v>10420</v>
       </c>
       <c r="C318">
-        <v>45.506700000000002</v>
+        <v>46.04</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
-        <v>44399</v>
+        <v>44400</v>
       </c>
       <c r="B319">
         <v>10420</v>
       </c>
       <c r="C319">
-        <v>46.04</v>
+        <v>46.646700000000003</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
-        <v>44400</v>
+        <v>44403</v>
       </c>
       <c r="B320">
-        <v>10420</v>
+        <v>10450</v>
       </c>
       <c r="C320">
-        <v>46.646700000000003</v>
+        <v>44.28</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
-        <v>44403</v>
+        <v>44404</v>
       </c>
       <c r="B321">
-        <v>10450</v>
+        <v>10370</v>
       </c>
       <c r="C321">
-        <v>44.28</v>
+        <v>43.406700000000001</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
-        <v>44404</v>
+        <v>44405</v>
       </c>
       <c r="B322">
-        <v>10370</v>
+        <v>10090</v>
       </c>
       <c r="C322">
-        <v>43.406700000000001</v>
+        <v>42.993299999999998</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
-        <v>44405</v>
+        <v>44406</v>
       </c>
       <c r="B323">
-        <v>10090</v>
+        <v>9980</v>
       </c>
       <c r="C323">
-        <v>42.993299999999998</v>
+        <v>43.16</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
-        <v>44406</v>
+        <v>44407</v>
       </c>
       <c r="B324">
-        <v>9980</v>
+        <v>10090</v>
       </c>
       <c r="C324">
-        <v>43.16</v>
+        <v>43.173299999999998</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
-        <v>44407</v>
+        <v>44410</v>
       </c>
       <c r="B325">
-        <v>10090</v>
+        <v>9905</v>
       </c>
       <c r="C325">
-        <v>43.173299999999998</v>
+        <v>44.14</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
-        <v>44410</v>
+        <v>44411</v>
       </c>
       <c r="B326">
         <v>9905</v>
       </c>
       <c r="C326">
-        <v>44.14</v>
+        <v>42.846699999999998</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
-        <v>44411</v>
+        <v>44412</v>
       </c>
       <c r="B327">
-        <v>9905</v>
+        <v>9990</v>
       </c>
       <c r="C327">
-        <v>42.846699999999998</v>
+        <v>42.853299999999997</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
-        <v>44412</v>
+        <v>44413</v>
       </c>
       <c r="B328">
-        <v>9990</v>
+        <v>9940</v>
       </c>
       <c r="C328">
-        <v>42.853299999999997</v>
+        <v>42.973300000000002</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
-        <v>44413</v>
+        <v>44414</v>
       </c>
       <c r="B329">
-        <v>9940</v>
+        <v>9890</v>
       </c>
       <c r="C329">
-        <v>42.973300000000002</v>
+        <v>42.186700000000002</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
-        <v>44414</v>
+        <v>44417</v>
       </c>
       <c r="B330">
-        <v>9890</v>
+        <v>9950</v>
       </c>
       <c r="C330">
-        <v>42.186700000000002</v>
+        <v>43.22</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
-        <v>44417</v>
+        <v>44418</v>
       </c>
       <c r="B331">
-        <v>9950</v>
+        <v>10020</v>
       </c>
       <c r="C331">
-        <v>43.22</v>
+        <v>43.306699999999999</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
-        <v>44418</v>
+        <v>44419</v>
       </c>
       <c r="B332">
-        <v>10020</v>
+        <v>10130</v>
       </c>
       <c r="C332">
-        <v>43.306699999999999</v>
+        <v>43.246699999999997</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="B333">
-        <v>10130</v>
+        <v>10350</v>
       </c>
       <c r="C333">
-        <v>43.246699999999997</v>
+        <v>42.953299999999999</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
-        <v>44420</v>
+        <v>44421</v>
       </c>
       <c r="B334">
-        <v>10350</v>
+        <v>10220</v>
       </c>
       <c r="C334">
-        <v>42.953299999999999</v>
+        <v>42.933300000000003</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
-        <v>44421</v>
+        <v>44425</v>
       </c>
       <c r="B335">
-        <v>10220</v>
+        <v>10650</v>
       </c>
       <c r="C335">
-        <v>42.933300000000003</v>
+        <v>42.793300000000002</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
-        <v>44425</v>
+        <v>44426</v>
       </c>
       <c r="B336">
-        <v>10650</v>
+        <v>11010</v>
       </c>
       <c r="C336">
-        <v>42.793300000000002</v>
+        <v>42.606699999999996</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
-        <v>44426</v>
+        <v>44427</v>
       </c>
       <c r="B337">
-        <v>11010</v>
+        <v>11080</v>
       </c>
       <c r="C337">
-        <v>42.606699999999996</v>
+        <v>42.1</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
-        <v>44427</v>
+        <v>44428</v>
       </c>
       <c r="B338">
-        <v>11080</v>
+        <v>11100</v>
       </c>
       <c r="C338">
-        <v>42.1</v>
+        <v>42.346699999999998</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
-        <v>44428</v>
+        <v>44431</v>
       </c>
       <c r="B339">
-        <v>11100</v>
+        <v>11030</v>
       </c>
       <c r="C339">
-        <v>42.346699999999998</v>
+        <v>43.1</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
-        <v>44431</v>
+        <v>44432</v>
       </c>
       <c r="B340">
-        <v>11030</v>
+        <v>11000</v>
       </c>
       <c r="C340">
-        <v>43.1</v>
+        <v>43.286700000000003</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
-        <v>44432</v>
+        <v>44433</v>
       </c>
       <c r="B341">
-        <v>11000</v>
+        <v>10940</v>
       </c>
       <c r="C341">
-        <v>43.286700000000003</v>
+        <v>42.46</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
-        <v>44433</v>
+        <v>44434</v>
       </c>
       <c r="B342">
-        <v>10940</v>
+        <v>10650</v>
       </c>
       <c r="C342">
-        <v>42.46</v>
+        <v>41.573300000000003</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
-        <v>44434</v>
+        <v>44435</v>
       </c>
       <c r="B343">
-        <v>10650</v>
+        <v>10890</v>
       </c>
       <c r="C343">
-        <v>41.573300000000003</v>
+        <v>41.92</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
-        <v>44435</v>
+        <v>44438</v>
       </c>
       <c r="B344">
-        <v>10890</v>
+        <v>10700</v>
       </c>
       <c r="C344">
-        <v>41.92</v>
+        <v>41.713299999999997</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
-        <v>44438</v>
+        <v>44439</v>
       </c>
       <c r="B345">
-        <v>10700</v>
+        <v>10940</v>
       </c>
       <c r="C345">
-        <v>41.713299999999997</v>
+        <v>42.4</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
-        <v>44439</v>
+        <v>44440</v>
       </c>
       <c r="B346">
-        <v>10940</v>
+        <v>11100</v>
       </c>
       <c r="C346">
-        <v>42.4</v>
+        <v>42.34</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
-        <v>44440</v>
+        <v>44441</v>
       </c>
       <c r="B347">
-        <v>11100</v>
+        <v>11300</v>
       </c>
       <c r="C347">
-        <v>42.34</v>
+        <v>42.5867</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
-        <v>44441</v>
+        <v>44442</v>
       </c>
       <c r="B348">
-        <v>11300</v>
+        <v>11150</v>
       </c>
       <c r="C348">
-        <v>42.5867</v>
+        <v>42.793300000000002</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
-        <v>44442</v>
+        <v>44445</v>
       </c>
       <c r="B349">
-        <v>11150</v>
-      </c>
-      <c r="C349">
-        <v>42.793300000000002</v>
+        <v>11180</v>
+      </c>
+      <c r="C349" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
-        <v>44445</v>
+        <v>44446</v>
       </c>
       <c r="B350">
-        <v>11180</v>
-      </c>
-      <c r="C350" t="s">
-        <v>4</v>
+        <v>11210</v>
+      </c>
+      <c r="C350">
+        <v>42.186700000000002</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
-        <v>44446</v>
+        <v>44447</v>
       </c>
       <c r="B351">
-        <v>11210</v>
+        <v>11080</v>
       </c>
       <c r="C351">
-        <v>42.186700000000002</v>
+        <v>41.686700000000002</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
-        <v>44447</v>
+        <v>44448</v>
       </c>
       <c r="B352">
-        <v>11080</v>
+        <v>11100</v>
       </c>
       <c r="C352">
-        <v>41.686700000000002</v>
+        <v>42.94</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
-        <v>44448</v>
+        <v>44449</v>
       </c>
       <c r="B353">
         <v>11100</v>
       </c>
       <c r="C353">
-        <v>42.94</v>
+        <v>42.08</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
-        <v>44449</v>
+        <v>44452</v>
       </c>
       <c r="B354">
-        <v>11100</v>
+        <v>10960</v>
       </c>
       <c r="C354">
-        <v>42.08</v>
+        <v>41.5533</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
-        <v>44452</v>
+        <v>44453</v>
       </c>
       <c r="B355">
-        <v>10960</v>
+        <v>10690</v>
       </c>
       <c r="C355">
-        <v>41.5533</v>
+        <v>40.7333</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
-        <v>44453</v>
+        <v>44454</v>
       </c>
       <c r="B356">
-        <v>10690</v>
+        <v>10700</v>
       </c>
       <c r="C356">
-        <v>40.7333</v>
+        <v>41.1267</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
-        <v>44454</v>
+        <v>44455</v>
       </c>
       <c r="B357">
-        <v>10700</v>
+        <v>10750</v>
       </c>
       <c r="C357">
-        <v>41.1267</v>
+        <v>40.406700000000001</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
-        <v>44455</v>
+        <v>44456</v>
       </c>
       <c r="B358">
-        <v>10750</v>
+        <v>10800</v>
       </c>
       <c r="C358">
-        <v>40.406700000000001</v>
+        <v>39.526699999999998</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
-        <v>44456</v>
+        <v>44459</v>
       </c>
       <c r="B359">
-        <v>10800</v>
+        <v>10700</v>
       </c>
       <c r="C359">
-        <v>39.526699999999998</v>
+        <v>38.1267</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
-        <v>44459</v>
+        <v>44460</v>
       </c>
       <c r="B360">
-        <v>10700</v>
+        <v>10690</v>
       </c>
       <c r="C360">
-        <v>38.1267</v>
+        <v>38.520000000000003</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
-        <v>44460</v>
+        <v>44461</v>
       </c>
       <c r="B361">
-        <v>10690</v>
+        <v>10770</v>
       </c>
       <c r="C361">
-        <v>38.520000000000003</v>
+        <v>39.193300000000001</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
-        <v>44461</v>
+        <v>44462</v>
       </c>
       <c r="B362">
-        <v>10770</v>
+        <v>10700</v>
       </c>
       <c r="C362">
-        <v>39.193300000000001</v>
+        <v>39.433300000000003</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
-        <v>44462</v>
+        <v>44463</v>
       </c>
       <c r="B363">
-        <v>10700</v>
+        <v>10580</v>
       </c>
       <c r="C363">
-        <v>39.433300000000003</v>
+        <v>39.2333</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
-        <v>44463</v>
+        <v>44466</v>
       </c>
       <c r="B364">
-        <v>10580</v>
+        <v>10870</v>
       </c>
       <c r="C364">
-        <v>39.2333</v>
+        <v>39.14</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
-        <v>44466</v>
+        <v>44467</v>
       </c>
       <c r="B365">
-        <v>10870</v>
+        <v>11100</v>
       </c>
       <c r="C365">
         <v>39.14</v>
@@ -4429,1891 +4429,1891 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
-        <v>44467</v>
+        <v>44468</v>
       </c>
       <c r="B366">
         <v>11100</v>
       </c>
       <c r="C366">
-        <v>39.14</v>
+        <v>39.22</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
-        <v>44468</v>
+        <v>44469</v>
       </c>
       <c r="B367">
-        <v>11100</v>
+        <v>11160</v>
       </c>
       <c r="C367">
-        <v>39.22</v>
+        <v>39.92</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
-        <v>44469</v>
+        <v>44470</v>
       </c>
       <c r="B368">
-        <v>11160</v>
+        <v>11340</v>
       </c>
       <c r="C368">
-        <v>39.92</v>
+        <v>39.773299999999999</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
-        <v>44470</v>
+        <v>44473</v>
       </c>
       <c r="B369">
-        <v>11340</v>
+        <v>11490</v>
       </c>
       <c r="C369">
-        <v>39.773299999999999</v>
+        <v>39.726700000000001</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
-        <v>44473</v>
+        <v>44474</v>
       </c>
       <c r="B370">
-        <v>11490</v>
+        <v>11400</v>
       </c>
       <c r="C370">
-        <v>39.726700000000001</v>
+        <v>39.4467</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="B371">
         <v>11400</v>
       </c>
       <c r="C371">
-        <v>39.4467</v>
+        <v>39.08</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
-        <v>44475</v>
+        <v>44476</v>
       </c>
       <c r="B372">
-        <v>11400</v>
+        <v>11500</v>
       </c>
       <c r="C372">
-        <v>39.08</v>
+        <v>39.4</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
-        <v>44476</v>
+        <v>44477</v>
       </c>
       <c r="B373">
-        <v>11500</v>
+        <v>11660</v>
       </c>
       <c r="C373">
-        <v>39.4</v>
+        <v>39.166699999999999</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
-        <v>44477</v>
+        <v>44480</v>
       </c>
       <c r="B374">
-        <v>11660</v>
+        <v>11900</v>
       </c>
       <c r="C374">
-        <v>39.166699999999999</v>
+        <v>39.18</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
-        <v>44480</v>
+        <v>44481</v>
       </c>
       <c r="B375">
-        <v>11900</v>
+        <v>11750</v>
       </c>
       <c r="C375">
-        <v>39.18</v>
+        <v>39.326700000000002</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
-        <v>44481</v>
+        <v>44482</v>
       </c>
       <c r="B376">
-        <v>11750</v>
+        <v>11790</v>
       </c>
       <c r="C376">
-        <v>39.326700000000002</v>
+        <v>39.293300000000002</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
-        <v>44482</v>
+        <v>44483</v>
       </c>
       <c r="B377">
-        <v>11790</v>
+        <v>12070</v>
       </c>
       <c r="C377">
-        <v>39.293300000000002</v>
+        <v>39.8733</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
-        <v>44483</v>
+        <v>44484</v>
       </c>
       <c r="B378">
-        <v>12070</v>
+        <v>12090</v>
       </c>
       <c r="C378">
-        <v>39.8733</v>
+        <v>39.926699999999997</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
-        <v>44484</v>
+        <v>44488</v>
       </c>
       <c r="B379">
-        <v>12090</v>
+        <v>12070</v>
       </c>
       <c r="C379">
-        <v>39.926699999999997</v>
+        <v>39.659999999999997</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
-        <v>44488</v>
+        <v>44489</v>
       </c>
       <c r="B380">
-        <v>12070</v>
+        <v>11880</v>
       </c>
       <c r="C380">
-        <v>39.659999999999997</v>
+        <v>39.78</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
-        <v>44489</v>
+        <v>44490</v>
       </c>
       <c r="B381">
-        <v>11880</v>
+        <v>11850</v>
       </c>
       <c r="C381">
-        <v>39.78</v>
+        <v>39.893300000000004</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
-        <v>44490</v>
+        <v>44491</v>
       </c>
       <c r="B382">
-        <v>11850</v>
+        <v>11800</v>
       </c>
       <c r="C382">
-        <v>39.893300000000004</v>
+        <v>40.46</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
-        <v>44491</v>
+        <v>44494</v>
       </c>
       <c r="B383">
-        <v>11800</v>
+        <v>11920</v>
       </c>
       <c r="C383">
-        <v>40.46</v>
+        <v>40.193300000000001</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
-        <v>44494</v>
+        <v>44495</v>
       </c>
       <c r="B384">
-        <v>11920</v>
+        <v>12060</v>
       </c>
       <c r="C384">
-        <v>40.193300000000001</v>
+        <v>40.993299999999998</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
-        <v>44495</v>
+        <v>44496</v>
       </c>
       <c r="B385">
-        <v>12060</v>
+        <v>11750</v>
       </c>
       <c r="C385">
-        <v>40.993299999999998</v>
+        <v>41.646700000000003</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
-        <v>44496</v>
+        <v>44497</v>
       </c>
       <c r="B386">
-        <v>11750</v>
+        <v>11790</v>
       </c>
       <c r="C386">
-        <v>41.646700000000003</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
-        <v>44497</v>
+        <v>44498</v>
       </c>
       <c r="B387">
-        <v>11790</v>
+        <v>11800</v>
       </c>
       <c r="C387">
-        <v>41.6</v>
+        <v>40.426699999999997</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
-        <v>44498</v>
+        <v>44502</v>
       </c>
       <c r="B388">
-        <v>11800</v>
+        <v>11570</v>
       </c>
       <c r="C388">
-        <v>40.426699999999997</v>
+        <v>41.6267</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="B389">
-        <v>11570</v>
+        <v>11600</v>
       </c>
       <c r="C389">
-        <v>41.6267</v>
+        <v>41.966700000000003</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="B390">
-        <v>11600</v>
+        <v>11770</v>
       </c>
       <c r="C390">
-        <v>41.966700000000003</v>
+        <v>41.746699999999997</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
-        <v>44504</v>
+        <v>44505</v>
       </c>
       <c r="B391">
-        <v>11770</v>
+        <v>11800</v>
       </c>
       <c r="C391">
-        <v>41.746699999999997</v>
+        <v>41.833300000000001</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
-        <v>44505</v>
+        <v>44508</v>
       </c>
       <c r="B392">
-        <v>11800</v>
+        <v>11880</v>
       </c>
       <c r="C392">
-        <v>41.833300000000001</v>
+        <v>43.66</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
-        <v>44508</v>
+        <v>44509</v>
       </c>
       <c r="B393">
-        <v>11880</v>
+        <v>11800</v>
       </c>
       <c r="C393">
-        <v>43.66</v>
+        <v>43.113300000000002</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="B394">
-        <v>11800</v>
+        <v>11580</v>
       </c>
       <c r="C394">
-        <v>43.113300000000002</v>
+        <v>43.333300000000001</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
-        <v>44510</v>
+        <v>44511</v>
       </c>
       <c r="B395">
-        <v>11580</v>
+        <v>11800</v>
       </c>
       <c r="C395">
-        <v>43.333300000000001</v>
+        <v>41.9133</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
-        <v>44511</v>
+        <v>44512</v>
       </c>
       <c r="B396">
-        <v>11800</v>
+        <v>11600</v>
       </c>
       <c r="C396">
-        <v>41.9133</v>
+        <v>41.986699999999999</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
-        <v>44512</v>
+        <v>44516</v>
       </c>
       <c r="B397">
         <v>11600</v>
       </c>
       <c r="C397">
-        <v>41.986699999999999</v>
+        <v>40.826700000000002</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
-        <v>44516</v>
+        <v>44517</v>
       </c>
       <c r="B398">
-        <v>11600</v>
+        <v>11380</v>
       </c>
       <c r="C398">
-        <v>40.826700000000002</v>
+        <v>40.44</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
-        <v>44517</v>
+        <v>44518</v>
       </c>
       <c r="B399">
-        <v>11380</v>
+        <v>11500</v>
       </c>
       <c r="C399">
-        <v>40.44</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
-        <v>44518</v>
+        <v>44519</v>
       </c>
       <c r="B400">
-        <v>11500</v>
+        <v>11020</v>
       </c>
       <c r="C400">
-        <v>41.5</v>
+        <v>40.813299999999998</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
-        <v>44519</v>
+        <v>44522</v>
       </c>
       <c r="B401">
-        <v>11020</v>
+        <v>11190</v>
       </c>
       <c r="C401">
-        <v>40.813299999999998</v>
+        <v>38.566699999999997</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
-        <v>44522</v>
+        <v>44523</v>
       </c>
       <c r="B402">
-        <v>11190</v>
+        <v>11200</v>
       </c>
       <c r="C402">
-        <v>38.566699999999997</v>
+        <v>39.58</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
-        <v>44523</v>
+        <v>44524</v>
       </c>
       <c r="B403">
-        <v>11200</v>
+        <v>11700</v>
       </c>
       <c r="C403">
-        <v>39.58</v>
+        <v>40.479999999999997</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
-        <v>44524</v>
+        <v>44525</v>
       </c>
       <c r="B404">
-        <v>11700</v>
-      </c>
-      <c r="C404">
-        <v>40.479999999999997</v>
+        <v>12100</v>
+      </c>
+      <c r="C404" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
-        <v>44525</v>
+        <v>44526</v>
       </c>
       <c r="B405">
-        <v>12100</v>
-      </c>
-      <c r="C405" t="s">
-        <v>4</v>
+        <v>11900</v>
+      </c>
+      <c r="C405">
+        <v>39.659999999999997</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
-        <v>44526</v>
+        <v>44529</v>
       </c>
       <c r="B406">
-        <v>11900</v>
+        <v>12400</v>
       </c>
       <c r="C406">
-        <v>39.659999999999997</v>
+        <v>40.5867</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
-        <v>44529</v>
+        <v>44530</v>
       </c>
       <c r="B407">
-        <v>12400</v>
+        <v>12600</v>
       </c>
       <c r="C407">
-        <v>40.5867</v>
+        <v>39.46</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
-        <v>44530</v>
+        <v>44531</v>
       </c>
       <c r="B408">
-        <v>12600</v>
+        <v>15100</v>
       </c>
       <c r="C408">
-        <v>39.46</v>
+        <v>38.9</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
-        <v>44531</v>
+        <v>44532</v>
       </c>
       <c r="B409">
-        <v>15100</v>
+        <v>15720</v>
       </c>
       <c r="C409">
-        <v>38.9</v>
+        <v>39.44</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
-        <v>44532</v>
+        <v>44533</v>
       </c>
       <c r="B410">
-        <v>15720</v>
+        <v>15420</v>
       </c>
       <c r="C410">
-        <v>39.44</v>
+        <v>39.979999999999997</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
-        <v>44533</v>
+        <v>44536</v>
       </c>
       <c r="B411">
-        <v>15420</v>
+        <v>15200</v>
       </c>
       <c r="C411">
-        <v>39.979999999999997</v>
+        <v>40.333300000000001</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
-        <v>44536</v>
+        <v>44537</v>
       </c>
       <c r="B412">
-        <v>15200</v>
+        <v>14000</v>
       </c>
       <c r="C412">
-        <v>40.333300000000001</v>
+        <v>41.426699999999997</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
-        <v>44537</v>
+        <v>44539</v>
       </c>
       <c r="B413">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="C413">
-        <v>41.426699999999997</v>
+        <v>41.813299999999998</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
-        <v>44539</v>
+        <v>44540</v>
       </c>
       <c r="B414">
-        <v>13500</v>
+        <v>13900</v>
       </c>
       <c r="C414">
-        <v>41.813299999999998</v>
+        <v>42.206699999999998</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
-        <v>44540</v>
+        <v>44543</v>
       </c>
       <c r="B415">
-        <v>13900</v>
+        <v>13290</v>
       </c>
       <c r="C415">
-        <v>42.206699999999998</v>
+        <v>42.346699999999998</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
-        <v>44543</v>
+        <v>44544</v>
       </c>
       <c r="B416">
-        <v>13290</v>
+        <v>13350</v>
       </c>
       <c r="C416">
-        <v>42.346699999999998</v>
+        <v>43.42</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
-        <v>44544</v>
+        <v>44545</v>
       </c>
       <c r="B417">
-        <v>13350</v>
+        <v>13860</v>
       </c>
       <c r="C417">
-        <v>43.42</v>
+        <v>43.74</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
-        <v>44545</v>
+        <v>44546</v>
       </c>
       <c r="B418">
-        <v>13860</v>
+        <v>14270</v>
       </c>
       <c r="C418">
-        <v>43.74</v>
+        <v>44.2333</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
-        <v>44546</v>
+        <v>44547</v>
       </c>
       <c r="B419">
-        <v>14270</v>
+        <v>13550</v>
       </c>
       <c r="C419">
-        <v>44.2333</v>
+        <v>44.0867</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
-        <v>44547</v>
+        <v>44550</v>
       </c>
       <c r="B420">
-        <v>13550</v>
+        <v>13370</v>
       </c>
       <c r="C420">
-        <v>44.0867</v>
+        <v>42.98</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
-        <v>44550</v>
+        <v>44551</v>
       </c>
       <c r="B421">
-        <v>13370</v>
+        <v>13620</v>
       </c>
       <c r="C421">
-        <v>42.98</v>
+        <v>43.72</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
-        <v>44551</v>
+        <v>44552</v>
       </c>
       <c r="B422">
-        <v>13620</v>
+        <v>13530</v>
       </c>
       <c r="C422">
-        <v>43.72</v>
+        <v>44.313299999999998</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
-        <v>44552</v>
+        <v>44553</v>
       </c>
       <c r="B423">
-        <v>13530</v>
+        <v>13410</v>
       </c>
       <c r="C423">
-        <v>44.313299999999998</v>
+        <v>44.84</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
-        <v>44553</v>
+        <v>44554</v>
       </c>
       <c r="B424">
-        <v>13410</v>
-      </c>
-      <c r="C424">
-        <v>44.84</v>
+        <v>13640</v>
+      </c>
+      <c r="C424" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
-        <v>44554</v>
+        <v>44557</v>
       </c>
       <c r="B425">
-        <v>13640</v>
-      </c>
-      <c r="C425" t="s">
-        <v>4</v>
+        <v>13600</v>
+      </c>
+      <c r="C425">
+        <v>45.753300000000003</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
-        <v>44557</v>
+        <v>44558</v>
       </c>
       <c r="B426">
-        <v>13600</v>
+        <v>13500</v>
       </c>
       <c r="C426">
-        <v>45.753300000000003</v>
+        <v>45.206699999999998</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
-        <v>44558</v>
+        <v>44559</v>
       </c>
       <c r="B427">
         <v>13500</v>
       </c>
       <c r="C427">
-        <v>45.206699999999998</v>
+        <v>44.64</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
-        <v>44559</v>
+        <v>44560</v>
       </c>
       <c r="B428">
-        <v>13500</v>
+        <v>13550</v>
       </c>
       <c r="C428">
-        <v>44.64</v>
+        <v>44.273299999999999</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
-        <v>44560</v>
+        <v>44564</v>
       </c>
       <c r="B429">
-        <v>13550</v>
+        <v>13500</v>
       </c>
       <c r="C429">
-        <v>44.273299999999999</v>
+        <v>46.44</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
-        <v>44564</v>
+        <v>44565</v>
       </c>
       <c r="B430">
         <v>13500</v>
       </c>
       <c r="C430">
-        <v>46.44</v>
+        <v>44.886699999999998</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
-        <v>44565</v>
+        <v>44566</v>
       </c>
       <c r="B431">
-        <v>13500</v>
+        <v>13350</v>
       </c>
       <c r="C431">
-        <v>44.886699999999998</v>
+        <v>43.6</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
-        <v>44566</v>
+        <v>44567</v>
       </c>
       <c r="B432">
-        <v>13350</v>
+        <v>12880</v>
       </c>
       <c r="C432">
-        <v>43.6</v>
+        <v>42.706699999999998</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
-        <v>44567</v>
+        <v>44568</v>
       </c>
       <c r="B433">
-        <v>12880</v>
+        <v>13650</v>
       </c>
       <c r="C433">
-        <v>42.706699999999998</v>
+        <v>42.88</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
-        <v>44568</v>
+        <v>44572</v>
       </c>
       <c r="B434">
-        <v>13650</v>
+        <v>13850</v>
       </c>
       <c r="C434">
-        <v>42.88</v>
+        <v>43.933300000000003</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
-        <v>44572</v>
+        <v>44573</v>
       </c>
       <c r="B435">
-        <v>13850</v>
+        <v>14400</v>
       </c>
       <c r="C435">
-        <v>43.933300000000003</v>
+        <v>43.393300000000004</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="B436">
-        <v>14400</v>
+        <v>14950</v>
       </c>
       <c r="C436">
-        <v>43.393300000000004</v>
+        <v>43.633299999999998</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="B437">
-        <v>14950</v>
+        <v>14220</v>
       </c>
       <c r="C437">
-        <v>43.633299999999998</v>
+        <v>44.3733</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
-        <v>44575</v>
+        <v>44578</v>
       </c>
       <c r="B438">
-        <v>14220</v>
-      </c>
-      <c r="C438">
-        <v>44.3733</v>
+        <v>15600</v>
+      </c>
+      <c r="C438" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
-        <v>44578</v>
+        <v>44579</v>
       </c>
       <c r="B439">
-        <v>15600</v>
-      </c>
-      <c r="C439" t="s">
-        <v>4</v>
+        <v>16510</v>
+      </c>
+      <c r="C439">
+        <v>43.386699999999998</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
-        <v>44579</v>
+        <v>44580</v>
       </c>
       <c r="B440">
-        <v>16510</v>
+        <v>16200</v>
       </c>
       <c r="C440">
-        <v>43.386699999999998</v>
+        <v>42.88</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
-        <v>44580</v>
+        <v>44581</v>
       </c>
       <c r="B441">
-        <v>16200</v>
+        <v>16350</v>
       </c>
       <c r="C441">
-        <v>42.88</v>
+        <v>43.973300000000002</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
-        <v>44581</v>
+        <v>44582</v>
       </c>
       <c r="B442">
-        <v>16350</v>
+        <v>15850</v>
       </c>
       <c r="C442">
-        <v>43.973300000000002</v>
+        <v>43.606699999999996</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
-        <v>44582</v>
+        <v>44585</v>
       </c>
       <c r="B443">
-        <v>15850</v>
+        <v>15790</v>
       </c>
       <c r="C443">
-        <v>43.606699999999996</v>
+        <v>43.546700000000001</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B444">
-        <v>15790</v>
+        <v>15620</v>
       </c>
       <c r="C444">
-        <v>43.546700000000001</v>
+        <v>43.5867</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="B445">
-        <v>15620</v>
+        <v>15590</v>
       </c>
       <c r="C445">
-        <v>43.5867</v>
+        <v>44.206699999999998</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="B446">
-        <v>15590</v>
+        <v>15640</v>
       </c>
       <c r="C446">
-        <v>44.206699999999998</v>
+        <v>43.06</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="B447">
-        <v>15640</v>
+        <v>15900</v>
       </c>
       <c r="C447">
-        <v>43.06</v>
+        <v>43.493299999999998</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
-        <v>44589</v>
+        <v>44592</v>
       </c>
       <c r="B448">
-        <v>15900</v>
+        <v>16140</v>
       </c>
       <c r="C448">
-        <v>43.493299999999998</v>
+        <v>44.213299999999997</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="B449">
-        <v>16140</v>
+        <v>15510</v>
       </c>
       <c r="C449">
-        <v>44.213299999999997</v>
+        <v>44.746699999999997</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
-        <v>44593</v>
+        <v>44594</v>
       </c>
       <c r="B450">
-        <v>15510</v>
+        <v>15300</v>
       </c>
       <c r="C450">
-        <v>44.746699999999997</v>
+        <v>44.673299999999998</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
-        <v>44594</v>
+        <v>44595</v>
       </c>
       <c r="B451">
-        <v>15300</v>
+        <v>14960</v>
       </c>
       <c r="C451">
-        <v>44.673299999999998</v>
+        <v>44.426699999999997</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
-        <v>44595</v>
+        <v>44596</v>
       </c>
       <c r="B452">
-        <v>14960</v>
+        <v>14430</v>
       </c>
       <c r="C452">
-        <v>44.426699999999997</v>
+        <v>44.5533</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
-        <v>44596</v>
+        <v>44599</v>
       </c>
       <c r="B453">
-        <v>14430</v>
+        <v>14230</v>
       </c>
       <c r="C453">
-        <v>44.5533</v>
+        <v>45.486699999999999</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
-        <v>44599</v>
+        <v>44600</v>
       </c>
       <c r="B454">
         <v>14230</v>
       </c>
       <c r="C454">
-        <v>45.486699999999999</v>
+        <v>44.773299999999999</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="B455">
-        <v>14230</v>
+        <v>13910</v>
       </c>
       <c r="C455">
-        <v>44.773299999999999</v>
+        <v>45.4133</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
-        <v>44601</v>
+        <v>44602</v>
       </c>
       <c r="B456">
-        <v>13910</v>
+        <v>13330</v>
       </c>
       <c r="C456">
-        <v>45.4133</v>
+        <v>45.46</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
-        <v>44602</v>
+        <v>44603</v>
       </c>
       <c r="B457">
-        <v>13330</v>
+        <v>13690</v>
       </c>
       <c r="C457">
-        <v>45.46</v>
+        <v>44.9</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
-        <v>44603</v>
+        <v>44606</v>
       </c>
       <c r="B458">
-        <v>13690</v>
+        <v>13350</v>
       </c>
       <c r="C458">
-        <v>44.9</v>
+        <v>44.686700000000002</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
-        <v>44606</v>
+        <v>44607</v>
       </c>
       <c r="B459">
-        <v>13350</v>
+        <v>13250</v>
       </c>
       <c r="C459">
-        <v>44.686700000000002</v>
+        <v>44.7333</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
-        <v>44607</v>
+        <v>44608</v>
       </c>
       <c r="B460">
-        <v>13250</v>
+        <v>13220</v>
       </c>
       <c r="C460">
-        <v>44.7333</v>
+        <v>44.646700000000003</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
-        <v>44608</v>
+        <v>44609</v>
       </c>
       <c r="B461">
-        <v>13220</v>
+        <v>13550</v>
       </c>
       <c r="C461">
-        <v>44.646700000000003</v>
+        <v>44.713299999999997</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
-        <v>44609</v>
+        <v>44610</v>
       </c>
       <c r="B462">
-        <v>13550</v>
+        <v>13480</v>
       </c>
       <c r="C462">
-        <v>44.713299999999997</v>
+        <v>45.213299999999997</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
-        <v>44610</v>
+        <v>44613</v>
       </c>
       <c r="B463">
-        <v>13480</v>
-      </c>
-      <c r="C463">
-        <v>45.213299999999997</v>
+        <v>13130</v>
+      </c>
+      <c r="C463" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
-        <v>44613</v>
+        <v>44614</v>
       </c>
       <c r="B464">
-        <v>13130</v>
-      </c>
-      <c r="C464" t="s">
-        <v>4</v>
+        <v>13400</v>
+      </c>
+      <c r="C464">
+        <v>45.213299999999997</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
-        <v>44614</v>
+        <v>44615</v>
       </c>
       <c r="B465">
-        <v>13400</v>
+        <v>13100</v>
       </c>
       <c r="C465">
-        <v>45.213299999999997</v>
+        <v>45.193300000000001</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
-        <v>44615</v>
+        <v>44616</v>
       </c>
       <c r="B466">
-        <v>13100</v>
+        <v>13320</v>
       </c>
       <c r="C466">
-        <v>45.193300000000001</v>
+        <v>46.246699999999997</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
-        <v>44616</v>
+        <v>44617</v>
       </c>
       <c r="B467">
-        <v>13320</v>
+        <v>13460</v>
       </c>
       <c r="C467">
-        <v>46.246699999999997</v>
+        <v>46.5867</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
-        <v>44617</v>
+        <v>44620</v>
       </c>
       <c r="B468">
-        <v>13460</v>
+        <v>12900</v>
       </c>
       <c r="C468">
-        <v>46.5867</v>
+        <v>46.96</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
-        <v>44620</v>
+        <v>44621</v>
       </c>
       <c r="B469">
-        <v>12900</v>
+        <v>13350</v>
       </c>
       <c r="C469">
-        <v>46.96</v>
+        <v>46.9467</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
-        <v>44621</v>
+        <v>44622</v>
       </c>
       <c r="B470">
-        <v>13350</v>
+        <v>13300</v>
       </c>
       <c r="C470">
-        <v>46.9467</v>
+        <v>47.513300000000001</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="B471">
         <v>13300</v>
       </c>
       <c r="C471">
-        <v>47.513300000000001</v>
+        <v>47.213299999999997</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
-        <v>44623</v>
+        <v>44624</v>
       </c>
       <c r="B472">
-        <v>13300</v>
+        <v>13280</v>
       </c>
       <c r="C472">
-        <v>47.213299999999997</v>
+        <v>46.386699999999998</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="B473">
-        <v>13280</v>
+        <v>13300</v>
       </c>
       <c r="C473">
-        <v>46.386699999999998</v>
+        <v>47.573300000000003</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
-        <v>44627</v>
+        <v>44628</v>
       </c>
       <c r="B474">
-        <v>13300</v>
+        <v>13350</v>
       </c>
       <c r="C474">
-        <v>47.573300000000003</v>
+        <v>47.533299999999997</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
-        <v>44628</v>
+        <v>44629</v>
       </c>
       <c r="B475">
-        <v>13350</v>
+        <v>13360</v>
       </c>
       <c r="C475">
-        <v>47.533299999999997</v>
+        <v>47.993299999999998</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
-        <v>44629</v>
+        <v>44630</v>
       </c>
       <c r="B476">
-        <v>13360</v>
+        <v>13340</v>
       </c>
       <c r="C476">
-        <v>47.993299999999998</v>
+        <v>47.366700000000002</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
-        <v>44630</v>
+        <v>44631</v>
       </c>
       <c r="B477">
-        <v>13340</v>
+        <v>13350</v>
       </c>
       <c r="C477">
-        <v>47.366700000000002</v>
+        <v>47.2</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
-        <v>44631</v>
+        <v>44634</v>
       </c>
       <c r="B478">
-        <v>13350</v>
+        <v>13180</v>
       </c>
       <c r="C478">
-        <v>47.2</v>
+        <v>46.353299999999997</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="B479">
-        <v>13180</v>
+        <v>13250</v>
       </c>
       <c r="C479">
-        <v>46.353299999999997</v>
+        <v>46.293300000000002</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="B480">
-        <v>13250</v>
+        <v>13350</v>
       </c>
       <c r="C480">
-        <v>46.293300000000002</v>
+        <v>46.52</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="B481">
-        <v>13350</v>
+        <v>13460</v>
       </c>
       <c r="C481">
-        <v>46.52</v>
+        <v>46.7</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
-        <v>44637</v>
+        <v>44638</v>
       </c>
       <c r="B482">
-        <v>13460</v>
+        <v>13020</v>
       </c>
       <c r="C482">
-        <v>46.7</v>
+        <v>46.9</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
-        <v>44638</v>
+        <v>44642</v>
       </c>
       <c r="B483">
-        <v>13020</v>
+        <v>13050</v>
       </c>
       <c r="C483">
-        <v>46.9</v>
+        <v>47.9133</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B484">
-        <v>13050</v>
+        <v>13110</v>
       </c>
       <c r="C484">
-        <v>47.9133</v>
+        <v>46.893300000000004</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="B485">
-        <v>13110</v>
+        <v>13530</v>
       </c>
       <c r="C485">
-        <v>46.893300000000004</v>
+        <v>48.34</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="B486">
-        <v>13530</v>
+        <v>14290</v>
       </c>
       <c r="C486">
-        <v>48.34</v>
+        <v>49.32</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
-        <v>44645</v>
+        <v>44648</v>
       </c>
       <c r="B487">
-        <v>14290</v>
+        <v>14170</v>
       </c>
       <c r="C487">
-        <v>49.32</v>
+        <v>49.88</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B488">
-        <v>14170</v>
+        <v>14320</v>
       </c>
       <c r="C488">
-        <v>49.88</v>
+        <v>50.26</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B489">
-        <v>14320</v>
+        <v>13900</v>
       </c>
       <c r="C489">
-        <v>50.26</v>
+        <v>50.64</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="B490">
-        <v>13900</v>
+        <v>13880</v>
       </c>
       <c r="C490">
-        <v>50.64</v>
+        <v>50.293300000000002</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="B491">
-        <v>13880</v>
+        <v>13980</v>
       </c>
       <c r="C491">
-        <v>50.293300000000002</v>
+        <v>51.2667</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
-        <v>44652</v>
+        <v>44655</v>
       </c>
       <c r="B492">
-        <v>13980</v>
+        <v>14320</v>
       </c>
       <c r="C492">
-        <v>51.2667</v>
+        <v>51.333300000000001</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
-        <v>44655</v>
+        <v>44656</v>
       </c>
       <c r="B493">
-        <v>14320</v>
+        <v>14440</v>
       </c>
       <c r="C493">
-        <v>51.333300000000001</v>
+        <v>50.686700000000002</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="B494">
-        <v>14440</v>
+        <v>14560</v>
       </c>
       <c r="C494">
-        <v>50.686700000000002</v>
+        <v>50.253300000000003</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="B495">
-        <v>14560</v>
+        <v>14500</v>
       </c>
       <c r="C495">
-        <v>50.253300000000003</v>
+        <v>50.646700000000003</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
-        <v>44658</v>
+        <v>44659</v>
       </c>
       <c r="B496">
-        <v>14500</v>
+        <v>14700</v>
       </c>
       <c r="C496">
-        <v>50.646700000000003</v>
+        <v>51.093299999999999</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
-        <v>44659</v>
+        <v>44662</v>
       </c>
       <c r="B497">
-        <v>14700</v>
+        <v>14540</v>
       </c>
       <c r="C497">
-        <v>51.093299999999999</v>
+        <v>50.02</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
-        <v>44662</v>
+        <v>44663</v>
       </c>
       <c r="B498">
-        <v>14540</v>
+        <v>14240</v>
       </c>
       <c r="C498">
-        <v>50.02</v>
+        <v>49.98</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
-        <v>44663</v>
+        <v>44664</v>
       </c>
       <c r="B499">
-        <v>14240</v>
+        <v>14500</v>
       </c>
       <c r="C499">
-        <v>49.98</v>
+        <v>50.5867</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
-        <v>44664</v>
+        <v>44669</v>
       </c>
       <c r="B500">
-        <v>14500</v>
+        <v>14380</v>
       </c>
       <c r="C500">
-        <v>50.5867</v>
+        <v>52.326700000000002</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
-        <v>44669</v>
+        <v>44670</v>
       </c>
       <c r="B501">
-        <v>14380</v>
+        <v>14420</v>
       </c>
       <c r="C501">
-        <v>52.326700000000002</v>
+        <v>52.406700000000001</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="B502">
-        <v>14420</v>
+        <v>14450</v>
       </c>
       <c r="C502">
-        <v>52.406700000000001</v>
+        <v>52.56</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
-        <v>44671</v>
+        <v>44672</v>
       </c>
       <c r="B503">
-        <v>14450</v>
+        <v>14350</v>
       </c>
       <c r="C503">
-        <v>52.56</v>
+        <v>51.293300000000002</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
-        <v>44672</v>
+        <v>44673</v>
       </c>
       <c r="B504">
         <v>14350</v>
       </c>
       <c r="C504">
-        <v>51.293300000000002</v>
+        <v>50.2333</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
-        <v>44673</v>
+        <v>44676</v>
       </c>
       <c r="B505">
         <v>14350</v>
       </c>
       <c r="C505">
-        <v>50.2333</v>
+        <v>50.0867</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
-        <v>44676</v>
+        <v>44677</v>
       </c>
       <c r="B506">
-        <v>14350</v>
+        <v>14300</v>
       </c>
       <c r="C506">
-        <v>50.0867</v>
+        <v>48.326700000000002</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
-        <v>44677</v>
+        <v>44678</v>
       </c>
       <c r="B507">
         <v>14300</v>
       </c>
       <c r="C507">
-        <v>48.326700000000002</v>
+        <v>47.92</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
-        <v>44678</v>
+        <v>44679</v>
       </c>
       <c r="B508">
-        <v>14300</v>
+        <v>14460</v>
       </c>
       <c r="C508">
-        <v>47.92</v>
+        <v>48.5867</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
-        <v>44679</v>
+        <v>44680</v>
       </c>
       <c r="B509">
-        <v>14460</v>
+        <v>14400</v>
       </c>
       <c r="C509">
-        <v>48.5867</v>
+        <v>47.28</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
-        <v>44680</v>
+        <v>44683</v>
       </c>
       <c r="B510">
-        <v>14400</v>
+        <v>14390</v>
       </c>
       <c r="C510">
-        <v>47.28</v>
+        <v>46.346699999999998</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
-        <v>44683</v>
+        <v>44684</v>
       </c>
       <c r="B511">
-        <v>14390</v>
+        <v>14200</v>
       </c>
       <c r="C511">
-        <v>46.346699999999998</v>
+        <v>46.673299999999998</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
-        <v>44684</v>
+        <v>44685</v>
       </c>
       <c r="B512">
-        <v>14200</v>
+        <v>14100</v>
       </c>
       <c r="C512">
-        <v>46.673299999999998</v>
+        <v>48.133299999999998</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
-        <v>44685</v>
+        <v>44686</v>
       </c>
       <c r="B513">
-        <v>14100</v>
+        <v>13800</v>
       </c>
       <c r="C513">
-        <v>48.133299999999998</v>
+        <v>46.5867</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
-        <v>44686</v>
+        <v>44687</v>
       </c>
       <c r="B514">
-        <v>13800</v>
+        <v>13660</v>
       </c>
       <c r="C514">
-        <v>46.5867</v>
+        <v>46.826700000000002</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
-        <v>44687</v>
+        <v>44690</v>
       </c>
       <c r="B515">
-        <v>13660</v>
+        <v>13120</v>
       </c>
       <c r="C515">
-        <v>46.826700000000002</v>
+        <v>46.28</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
-        <v>44690</v>
+        <v>44691</v>
       </c>
       <c r="B516">
-        <v>13120</v>
+        <v>14000</v>
       </c>
       <c r="C516">
-        <v>46.28</v>
+        <v>45.686700000000002</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
-        <v>44691</v>
+        <v>44692</v>
       </c>
       <c r="B517">
-        <v>14000</v>
+        <v>13800</v>
       </c>
       <c r="C517">
-        <v>45.686700000000002</v>
+        <v>45.92</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
-        <v>44692</v>
+        <v>44693</v>
       </c>
       <c r="B518">
-        <v>13800</v>
+        <v>14000</v>
       </c>
       <c r="C518">
-        <v>45.92</v>
+        <v>45.693300000000001</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
-        <v>44693</v>
+        <v>44694</v>
       </c>
       <c r="B519">
         <v>14000</v>
       </c>
       <c r="C519">
-        <v>45.693300000000001</v>
+        <v>46.613300000000002</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
-        <v>44694</v>
+        <v>44697</v>
       </c>
       <c r="B520">
-        <v>14000</v>
+        <v>14110</v>
       </c>
       <c r="C520">
-        <v>46.613300000000002</v>
+        <v>47.3733</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
-        <v>44697</v>
+        <v>44698</v>
       </c>
       <c r="B521">
-        <v>14110</v>
+        <v>13950</v>
       </c>
       <c r="C521">
-        <v>47.3733</v>
+        <v>48.193300000000001</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
-        <v>44698</v>
+        <v>44699</v>
       </c>
       <c r="B522">
-        <v>13950</v>
+        <v>13600</v>
       </c>
       <c r="C522">
-        <v>48.193300000000001</v>
+        <v>47.493299999999998</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
-        <v>44699</v>
+        <v>44700</v>
       </c>
       <c r="B523">
-        <v>13600</v>
+        <v>13540</v>
       </c>
       <c r="C523">
-        <v>47.493299999999998</v>
+        <v>47.346699999999998</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
-        <v>44700</v>
-      </c>
-      <c r="B524">
-        <v>13540</v>
+        <v>44701</v>
+      </c>
+      <c r="B524" t="s">
+        <v>3</v>
       </c>
       <c r="C524">
-        <v>47.346699999999998</v>
+        <v>47.906700000000001</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
-        <v>44701</v>
+        <v>44704</v>
       </c>
       <c r="B525" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C525">
-        <v>47.906700000000001</v>
+        <v>49.7333</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
-        <v>44704</v>
+        <v>44705</v>
       </c>
       <c r="B526" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C526">
-        <v>49.7333</v>
+        <v>50.5867</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
-        <v>44705</v>
+        <v>44706</v>
       </c>
       <c r="B527" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C527">
-        <v>50.5867</v>
+        <v>50.113300000000002</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
-        <v>44706</v>
+        <v>44707</v>
       </c>
       <c r="B528" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C528">
-        <v>50.113300000000002</v>
+        <v>48.826700000000002</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
-        <v>44707</v>
+        <v>44708</v>
       </c>
       <c r="B529" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C529">
-        <v>48.826700000000002</v>
+        <v>48</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
-        <v>44708</v>
+        <v>44712</v>
       </c>
       <c r="B530" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C530">
-        <v>48</v>
+        <v>47.033299999999997</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
-        <v>44712</v>
+        <v>44713</v>
       </c>
       <c r="B531" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C531">
-        <v>47.033299999999997</v>
+        <v>46.993299999999998</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
-        <v>44713</v>
+        <v>44714</v>
       </c>
       <c r="B532" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C532">
-        <v>46.993299999999998</v>
+        <v>47.853299999999997</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
-        <v>44714</v>
+        <v>44715</v>
       </c>
       <c r="B533" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C533">
-        <v>47.853299999999997</v>
+        <v>47.166699999999999</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
-        <v>44715</v>
+        <v>44718</v>
       </c>
       <c r="B534" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C534">
-        <v>47.166699999999999</v>
+        <v>46.42</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
-        <v>44718</v>
+        <v>44719</v>
       </c>
       <c r="B535" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C535">
-        <v>46.42</v>
+        <v>46.666699999999999</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
-        <v>44719</v>
+        <v>44720</v>
       </c>
       <c r="B536" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C536">
-        <v>46.666699999999999</v>
+        <v>46.22</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
-        <v>44720</v>
+        <v>44721</v>
       </c>
       <c r="B537" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C537">
         <v>46.22</v>
@@ -6321,683 +6321,672 @@
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
-        <v>44721</v>
+        <v>44722</v>
       </c>
       <c r="B538" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C538">
-        <v>46.22</v>
+        <v>46.006700000000002</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
-        <v>44722</v>
-      </c>
-      <c r="B539" t="s">
-        <v>4</v>
+        <v>44725</v>
+      </c>
+      <c r="B539">
+        <v>16200</v>
       </c>
       <c r="C539">
-        <v>46.006700000000002</v>
+        <v>44.38</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
-        <v>44725</v>
+        <v>44726</v>
       </c>
       <c r="B540">
-        <v>16200</v>
+        <v>16410</v>
       </c>
       <c r="C540">
-        <v>44.38</v>
+        <v>44.29</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
-        <v>44726</v>
+        <v>44727</v>
       </c>
       <c r="B541">
-        <v>16410</v>
+        <v>16380</v>
       </c>
       <c r="C541">
-        <v>44.29</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
-        <v>44727</v>
+        <v>44728</v>
       </c>
       <c r="B542">
-        <v>16380</v>
+        <v>16440</v>
       </c>
       <c r="C542">
-        <v>44.5</v>
+        <v>43.51</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
-        <v>44728</v>
+        <v>44729</v>
       </c>
       <c r="B543">
-        <v>16440</v>
+        <v>16200</v>
       </c>
       <c r="C543">
-        <v>43.51</v>
+        <v>43.04</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
-        <v>44729</v>
+        <v>44733</v>
       </c>
       <c r="B544">
         <v>16200</v>
       </c>
       <c r="C544">
-        <v>43.04</v>
+        <v>41.33</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
-        <v>44733</v>
+        <v>44734</v>
       </c>
       <c r="B545">
-        <v>16200</v>
+        <v>16250</v>
       </c>
       <c r="C545">
-        <v>41.33</v>
+        <v>40.85</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
-        <v>44734</v>
+        <v>44735</v>
       </c>
       <c r="B546">
-        <v>16250</v>
+        <v>16260</v>
       </c>
       <c r="C546">
-        <v>40.85</v>
+        <v>39.83</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
-        <v>44735</v>
+        <v>44736</v>
       </c>
       <c r="B547">
-        <v>16260</v>
+        <v>16030</v>
       </c>
       <c r="C547">
-        <v>39.83</v>
+        <v>41.22</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
-        <v>44736</v>
+        <v>44740</v>
       </c>
       <c r="B548">
-        <v>16030</v>
+        <v>15370</v>
       </c>
       <c r="C548">
-        <v>41.22</v>
+        <v>41.83</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
-        <v>44740</v>
+        <v>44741</v>
       </c>
       <c r="B549">
-        <v>15370</v>
+        <v>15400</v>
       </c>
       <c r="C549">
-        <v>41.83</v>
+        <v>41.76</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
-        <v>44741</v>
+        <v>44742</v>
       </c>
       <c r="B550">
-        <v>15400</v>
+        <v>15060</v>
       </c>
       <c r="C550">
-        <v>41.76</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
-        <v>44742</v>
+        <v>44743</v>
       </c>
       <c r="B551">
-        <v>15060</v>
+        <v>15600</v>
       </c>
       <c r="C551">
-        <v>42.5</v>
+        <v>42.93</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
-        <v>44743</v>
+        <v>44747</v>
       </c>
       <c r="B552">
-        <v>15600</v>
+        <v>15460</v>
       </c>
       <c r="C552">
-        <v>42.93</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
-        <v>44747</v>
+        <v>44748</v>
       </c>
       <c r="B553">
-        <v>15460</v>
+        <v>14310</v>
       </c>
       <c r="C553">
-        <v>41.6</v>
+        <v>42.1</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
-        <v>44748</v>
+        <v>44749</v>
       </c>
       <c r="B554">
-        <v>14310</v>
+        <v>13800</v>
       </c>
       <c r="C554">
-        <v>42.1</v>
+        <v>42.61</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
-        <v>44749</v>
+        <v>44750</v>
       </c>
       <c r="B555">
-        <v>13800</v>
+        <v>13950</v>
       </c>
       <c r="C555">
-        <v>42.61</v>
+        <v>42.45</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
-        <v>44750</v>
+        <v>44753</v>
       </c>
       <c r="B556">
-        <v>13950</v>
+        <v>14180</v>
       </c>
       <c r="C556">
-        <v>42.45</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
-        <v>44753</v>
+        <v>44754</v>
       </c>
       <c r="B557">
-        <v>14180</v>
+        <v>14000</v>
       </c>
       <c r="C557">
-        <v>41.6</v>
+        <v>42.49</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
-        <v>44754</v>
+        <v>44755</v>
       </c>
       <c r="B558">
-        <v>14000</v>
+        <v>13630</v>
       </c>
       <c r="C558">
-        <v>42.49</v>
+        <v>42.58</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="B559">
-        <v>13630</v>
+        <v>12700</v>
       </c>
       <c r="C559">
-        <v>42.58</v>
+        <v>41.86</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
-        <v>44756</v>
+        <v>44757</v>
       </c>
       <c r="B560">
-        <v>12700</v>
+        <v>13200</v>
       </c>
       <c r="C560">
-        <v>41.86</v>
+        <v>42.47</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
-        <v>44757</v>
+        <v>44760</v>
       </c>
       <c r="B561">
-        <v>13200</v>
+        <v>12980</v>
       </c>
       <c r="C561">
-        <v>42.47</v>
+        <v>41.52</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
-        <v>44760</v>
+        <v>44761</v>
       </c>
       <c r="B562">
-        <v>12980</v>
+        <v>12900</v>
       </c>
       <c r="C562">
-        <v>41.52</v>
+        <v>42.31</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
-        <v>44761</v>
+        <v>44763</v>
       </c>
       <c r="B563">
-        <v>12900</v>
+        <v>12380</v>
       </c>
       <c r="C563">
-        <v>42.31</v>
+        <v>42.53</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
-        <v>44763</v>
+        <v>44764</v>
       </c>
       <c r="B564">
-        <v>12380</v>
+        <v>12020</v>
       </c>
       <c r="C564">
-        <v>42.53</v>
+        <v>42.59</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
-        <v>44764</v>
+        <v>44767</v>
       </c>
       <c r="B565">
-        <v>12020</v>
+        <v>12200</v>
       </c>
       <c r="C565">
-        <v>42.59</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
-        <v>44767</v>
+        <v>44768</v>
       </c>
       <c r="B566">
-        <v>12200</v>
+        <v>12630</v>
       </c>
       <c r="C566">
-        <v>43.8</v>
+        <v>43.94</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
-        <v>44768</v>
+        <v>44769</v>
       </c>
       <c r="B567">
-        <v>12630</v>
+        <v>12490</v>
       </c>
       <c r="C567">
-        <v>43.94</v>
+        <v>44.4</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
-        <v>44769</v>
+        <v>44770</v>
       </c>
       <c r="B568">
-        <v>12490</v>
+        <v>12460</v>
       </c>
       <c r="C568">
-        <v>44.4</v>
+        <v>45.29</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
-        <v>44770</v>
+        <v>44771</v>
       </c>
       <c r="B569">
-        <v>12460</v>
+        <v>12100</v>
       </c>
       <c r="C569">
-        <v>45.29</v>
+        <v>45.81</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
-        <v>44771</v>
+        <v>44774</v>
       </c>
       <c r="B570">
-        <v>12100</v>
+        <v>11790</v>
       </c>
       <c r="C570">
-        <v>45.81</v>
+        <v>45.14</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
-        <v>44774</v>
+        <v>44775</v>
       </c>
       <c r="B571">
-        <v>11790</v>
+        <v>11840</v>
       </c>
       <c r="C571">
-        <v>45.14</v>
+        <v>45.37</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
-        <v>44775</v>
+        <v>44776</v>
       </c>
       <c r="B572">
-        <v>11840</v>
+        <v>11500</v>
       </c>
       <c r="C572">
-        <v>45.37</v>
+        <v>46.75</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
-        <v>44776</v>
+        <v>44777</v>
       </c>
       <c r="B573">
-        <v>11500</v>
+        <v>11200</v>
       </c>
       <c r="C573">
-        <v>46.75</v>
+        <v>46.7</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
-        <v>44777</v>
+        <v>44778</v>
       </c>
       <c r="B574">
-        <v>11200</v>
+        <v>11330</v>
       </c>
       <c r="C574">
-        <v>46.7</v>
+        <v>47.18</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
-        <v>44778</v>
+        <v>44781</v>
       </c>
       <c r="B575">
-        <v>11330</v>
+        <v>11750</v>
       </c>
       <c r="C575">
-        <v>47.18</v>
+        <v>46.82</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
-        <v>44781</v>
+        <v>44782</v>
       </c>
       <c r="B576">
-        <v>11750</v>
+        <v>11600</v>
       </c>
       <c r="C576">
-        <v>46.82</v>
+        <v>46.98</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
-        <v>44782</v>
+        <v>44783</v>
       </c>
       <c r="B577">
-        <v>11600</v>
+        <v>11480</v>
       </c>
       <c r="C577">
-        <v>46.98</v>
+        <v>47.56</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
-        <v>44783</v>
+        <v>44784</v>
       </c>
       <c r="B578">
-        <v>11480</v>
+        <v>11690</v>
       </c>
       <c r="C578">
-        <v>47.56</v>
+        <v>47.63</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
-        <v>44784</v>
+        <v>44785</v>
       </c>
       <c r="B579">
-        <v>11690</v>
+        <v>11600</v>
       </c>
       <c r="C579">
-        <v>47.63</v>
+        <v>47.89</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
-        <v>44785</v>
+        <v>44789</v>
       </c>
       <c r="B580">
-        <v>11600</v>
+        <v>11210</v>
       </c>
       <c r="C580">
-        <v>47.89</v>
+        <v>48.2</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
-        <v>44789</v>
+        <v>44790</v>
       </c>
       <c r="B581">
-        <v>11210</v>
+        <v>11320</v>
       </c>
       <c r="C581">
-        <v>48.2</v>
+        <v>48.42</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
-        <v>44790</v>
+        <v>44791</v>
       </c>
       <c r="B582">
-        <v>11320</v>
+        <v>11300</v>
       </c>
       <c r="C582">
-        <v>48.42</v>
+        <v>49.2</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
-        <v>44791</v>
+        <v>44792</v>
       </c>
       <c r="B583">
-        <v>11300</v>
+        <v>11140</v>
       </c>
       <c r="C583">
-        <v>49.2</v>
+        <v>48.72</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
-        <v>44792</v>
+        <v>44795</v>
       </c>
       <c r="B584">
-        <v>11140</v>
+        <v>10900</v>
       </c>
       <c r="C584">
-        <v>48.72</v>
+        <v>48.01</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
-        <v>44795</v>
+        <v>44796</v>
       </c>
       <c r="B585">
-        <v>10900</v>
+        <v>10100</v>
       </c>
       <c r="C585">
-        <v>48.01</v>
+        <v>48.35</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
-        <v>44796</v>
+        <v>44797</v>
       </c>
       <c r="B586">
-        <v>10100</v>
+        <v>10300</v>
       </c>
       <c r="C586">
-        <v>48.35</v>
+        <v>49.06</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
-        <v>44797</v>
+        <v>44798</v>
       </c>
       <c r="B587">
-        <v>10300</v>
+        <v>10270</v>
       </c>
       <c r="C587">
-        <v>49.06</v>
+        <v>49.7</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
-        <v>44798</v>
+        <v>44799</v>
       </c>
       <c r="B588">
-        <v>10270</v>
+        <v>10230</v>
       </c>
       <c r="C588">
-        <v>49.7</v>
+        <v>48.85</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
-        <v>44799</v>
+        <v>44802</v>
       </c>
       <c r="B589">
-        <v>10230</v>
+        <v>10030</v>
       </c>
       <c r="C589">
-        <v>48.85</v>
+        <v>49.17</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
-        <v>44802</v>
+        <v>44803</v>
       </c>
       <c r="B590">
-        <v>10030</v>
+        <v>9815</v>
       </c>
       <c r="C590">
-        <v>49.17</v>
+        <v>48.1</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
-        <v>44803</v>
+        <v>44804</v>
       </c>
       <c r="B591">
-        <v>9815</v>
+        <v>9750</v>
       </c>
       <c r="C591">
-        <v>48.1</v>
+        <v>47.6</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
-        <v>44804</v>
+        <v>44805</v>
       </c>
       <c r="B592">
-        <v>9750</v>
+        <v>9790</v>
       </c>
       <c r="C592">
-        <v>47.6</v>
+        <v>46.85</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
-        <v>44805</v>
+        <v>44806</v>
       </c>
       <c r="B593">
-        <v>9790</v>
+        <v>9910</v>
       </c>
       <c r="C593">
-        <v>46.85</v>
+        <v>47.15</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
-        <v>44806</v>
+        <v>44809</v>
       </c>
       <c r="B594">
-        <v>9910</v>
-      </c>
-      <c r="C594">
-        <v>47.15</v>
+        <v>9850</v>
+      </c>
+      <c r="C594" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
-        <v>44809</v>
+        <v>44810</v>
       </c>
       <c r="B595">
-        <v>9850</v>
-      </c>
-      <c r="C595" t="s">
-        <v>4</v>
+        <v>9840</v>
+      </c>
+      <c r="C595">
+        <v>47.83</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
-        <v>44810</v>
+        <v>44811</v>
       </c>
       <c r="B596">
-        <v>9840</v>
+        <v>9750</v>
       </c>
       <c r="C596">
-        <v>47.83</v>
+        <v>48.11</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
-        <v>44811</v>
+        <v>44812</v>
       </c>
       <c r="B597">
         <v>9750</v>
       </c>
       <c r="C597">
-        <v>48.11</v>
+        <v>48.37</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
-        <v>44812</v>
+        <v>44813</v>
       </c>
       <c r="B598">
-        <v>9750</v>
+        <v>9700</v>
       </c>
       <c r="C598">
-        <v>48.37</v>
-      </c>
-    </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A599" s="1">
-        <v>44813</v>
-      </c>
-      <c r="B599">
-        <v>9700</v>
-      </c>
-      <c r="C599">
         <v>48.78</v>
       </c>
     </row>
